--- a/resources/data-imports/Monsters/celestials.xlsx
+++ b/resources/data-imports/Monsters/celestials.xlsx
@@ -418,8 +418,8 @@
   </sheetPr>
   <dimension ref="A1:AW30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO27" activeCellId="0" sqref="AO27:AO29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM32" activeCellId="0" sqref="AM32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/resources/data-imports/Monsters/celestials.xlsx
+++ b/resources/data-imports/Monsters/celestials.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -188,9 +188,6 @@
     <t>1000000-2000000</t>
   </si>
   <si>
-    <t>Dungeon Ink</t>
-  </si>
-  <si>
     <t>Sinister Liar</t>
   </si>
   <si>
@@ -239,13 +236,13 @@
     <t>Labyrinth Hellraiser</t>
   </si>
   <si>
+    <t>Fanatic of Tlessa</t>
+  </si>
+  <si>
     <t>Witch's Pet</t>
   </si>
   <si>
     <t>River Styx Sandals</t>
-  </si>
-  <si>
-    <t>Fanatic of Tlessa</t>
   </si>
   <si>
     <t>Minotaur God</t>
@@ -1209,11 +1206,8 @@
       <c r="AL4">
         <v>0</v>
       </c>
-      <c r="AM4" t="s">
-        <v>57</v>
-      </c>
       <c r="AN4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="s">
         <v>51</v>
@@ -1224,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>3000000</v>
@@ -1293,10 +1287,10 @@
         <v>12</v>
       </c>
       <c r="Y5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA5">
         <v>3000000</v>
@@ -1334,11 +1328,8 @@
       <c r="AL5">
         <v>0</v>
       </c>
-      <c r="AM5" t="s">
-        <v>57</v>
-      </c>
       <c r="AN5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="s">
         <v>51</v>
@@ -1349,7 +1340,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>4000000</v>
@@ -1418,10 +1409,10 @@
         <v>16</v>
       </c>
       <c r="Y6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA6">
         <v>4000000</v>
@@ -1468,7 +1459,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>5000000</v>
@@ -1537,10 +1528,10 @@
         <v>18</v>
       </c>
       <c r="Y7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA7">
         <v>5000000</v>
@@ -1587,7 +1578,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>6000000</v>
@@ -1656,10 +1647,10 @@
         <v>19</v>
       </c>
       <c r="Y8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Z8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AA8">
         <v>6000000</v>
@@ -1706,7 +1697,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>7000000</v>
@@ -1775,10 +1766,10 @@
         <v>20</v>
       </c>
       <c r="Y9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA9">
         <v>7000000</v>
@@ -1825,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>10000000</v>
@@ -1933,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="AO10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP10">
         <v>1</v>
@@ -1944,7 +1935,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>1000000</v>
@@ -2055,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="AO11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:49">
@@ -2063,7 +2054,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12">
         <v>2000000</v>
@@ -2174,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="AO12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:49">
@@ -2182,7 +2173,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13">
         <v>3000000</v>
@@ -2251,10 +2242,10 @@
         <v>12</v>
       </c>
       <c r="Y13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA13">
         <v>3000000</v>
@@ -2293,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="AO13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:49">
@@ -2301,7 +2292,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14">
         <v>4000000</v>
@@ -2370,10 +2361,10 @@
         <v>16</v>
       </c>
       <c r="Y14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA14">
         <v>4000000</v>
@@ -2412,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="AO14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:49">
@@ -2420,43 +2411,43 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="D15">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="E15">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="F15">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="G15">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="H15">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="I15">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J15">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="K15">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="L15">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="M15">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="N15">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -2474,31 +2465,31 @@
         <v>99999</v>
       </c>
       <c r="T15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U15">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="V15">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="W15">
-        <v>800000000</v>
+        <v>700000000</v>
       </c>
       <c r="X15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA15">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="AB15">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="AC15">
         <v>1</v>
@@ -2513,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="AG15">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2530,14 +2521,8 @@
       <c r="AL15">
         <v>0</v>
       </c>
-      <c r="AM15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN15">
-        <v>0.2</v>
-      </c>
       <c r="AO15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:49">
@@ -2545,43 +2530,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="D16">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="E16">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="F16">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="G16">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="H16">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="I16">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="J16">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="K16">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="L16">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="M16">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="N16">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -2599,31 +2584,31 @@
         <v>99999</v>
       </c>
       <c r="T16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U16">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="V16">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="W16">
-        <v>700000000</v>
+        <v>800000000</v>
       </c>
       <c r="X16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AA16">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="AB16">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -2638,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="AG16">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2655,8 +2640,14 @@
       <c r="AL16">
         <v>0</v>
       </c>
+      <c r="AM16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN16">
+        <v>0.2</v>
+      </c>
       <c r="AO16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:49">
@@ -2664,7 +2655,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <v>7000000</v>
@@ -2733,10 +2724,10 @@
         <v>20</v>
       </c>
       <c r="Y17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA17">
         <v>7000000</v>
@@ -2775,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="AO17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:49">
@@ -2783,7 +2774,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18">
         <v>8000000</v>
@@ -2852,10 +2843,10 @@
         <v>22</v>
       </c>
       <c r="Y18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA18">
         <v>8000000</v>
@@ -2894,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="AO18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:49">
@@ -2902,7 +2893,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19">
         <v>9000000</v>
@@ -2971,10 +2962,10 @@
         <v>23</v>
       </c>
       <c r="Y19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA19">
         <v>9000000</v>
@@ -3013,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="AO19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:49">
@@ -3021,7 +3012,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20">
         <v>9250000</v>
@@ -3090,10 +3081,10 @@
         <v>25</v>
       </c>
       <c r="Y20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA20">
         <v>9250000</v>
@@ -3132,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="AO20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:49">
@@ -3140,7 +3131,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21">
         <v>10000000</v>
@@ -3248,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="AO21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AP21">
         <v>1</v>
@@ -3259,7 +3250,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22">
         <v>1000000</v>
@@ -3370,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="AO22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:49">
@@ -3378,7 +3369,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>2000000</v>
@@ -3489,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="AO23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:49">
@@ -3497,7 +3488,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24">
         <v>3000000</v>
@@ -3566,10 +3557,10 @@
         <v>14</v>
       </c>
       <c r="Y24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA24">
         <v>3000000</v>
@@ -3608,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="AO24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:49">
@@ -3616,7 +3607,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25">
         <v>4000000</v>
@@ -3685,10 +3676,10 @@
         <v>16</v>
       </c>
       <c r="Y25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AA25">
         <v>4000000</v>
@@ -3727,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="AO25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:49">
@@ -3735,7 +3726,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26">
         <v>5000000</v>
@@ -3804,10 +3795,10 @@
         <v>20</v>
       </c>
       <c r="Y26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA26">
         <v>5000000</v>
@@ -3846,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="AO26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:49">
@@ -3854,7 +3845,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27">
         <v>10000000</v>
@@ -3962,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="AO27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP27">
         <v>1</v>
@@ -3973,7 +3964,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28">
         <v>7000000</v>
@@ -4042,10 +4033,10 @@
         <v>20</v>
       </c>
       <c r="Y28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Z28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA28">
         <v>7000000</v>
@@ -4084,13 +4075,13 @@
         <v>0</v>
       </c>
       <c r="AM28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN28">
         <v>1</v>
       </c>
       <c r="AO28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:49">
@@ -4098,7 +4089,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29">
         <v>8000000</v>
@@ -4167,10 +4158,10 @@
         <v>25</v>
       </c>
       <c r="Y29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA29">
         <v>8000000</v>
@@ -4209,13 +4200,13 @@
         <v>0</v>
       </c>
       <c r="AM29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AN29">
         <v>1</v>
       </c>
       <c r="AO29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Monsters/celestials.xlsx
+++ b/resources/data-imports/Monsters/celestials.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -170,7 +170,7 @@
     <t>King of the Duegar</t>
   </si>
   <si>
-    <t>5000000-10000000</t>
+    <t>25000000-50000000</t>
   </si>
   <si>
     <t>Surface</t>
@@ -179,7 +179,7 @@
     <t>Celestial Treasure Goblin</t>
   </si>
   <si>
-    <t>500000-1000000</t>
+    <t>32292709-64585418</t>
   </si>
   <si>
     <t>Judges Helm</t>
@@ -188,37 +188,37 @@
     <t>Faceless Shadow</t>
   </si>
   <si>
-    <t>1000000-2000000</t>
+    <t>41712762-83425523</t>
   </si>
   <si>
     <t>Sinister Liar</t>
   </si>
   <si>
-    <t>1500000-3000000</t>
+    <t>53880722-107761443</t>
   </si>
   <si>
     <t>Corrupted Plane Walker</t>
   </si>
   <si>
-    <t>2000000-4000000</t>
+    <t>72481526-144963051</t>
   </si>
   <si>
     <t>Shadow of the Depths</t>
   </si>
   <si>
-    <t>2500000-5000000</t>
+    <t>94579966-189159931</t>
   </si>
   <si>
     <t>Angelic Soldier</t>
   </si>
   <si>
-    <t>3000000-6000000</t>
+    <t>123415862-246831724</t>
   </si>
   <si>
     <t>Red Raging Treasure Mage</t>
   </si>
   <si>
-    <t>3500000-7000000</t>
+    <t>150000000-300000000</t>
   </si>
   <si>
     <t>Githzerai Monk of Labyrinth</t>
@@ -230,45 +230,63 @@
     <t>Death Eater</t>
   </si>
   <si>
+    <t>29905780-59811560</t>
+  </si>
+  <si>
     <t>Hell Dragon of Kazard</t>
   </si>
   <si>
+    <t>35774228-71548455</t>
+  </si>
+  <si>
     <t>Godless Wizard</t>
   </si>
   <si>
+    <t>42794247-85588493</t>
+  </si>
+  <si>
     <t>Labyrinth Hellraiser</t>
   </si>
   <si>
+    <t>51191813-102383626</t>
+  </si>
+  <si>
     <t>Fanatic of Tlessa</t>
   </si>
   <si>
+    <t>61237244-122474488</t>
+  </si>
+  <si>
     <t>Witch's Pet</t>
   </si>
   <si>
+    <t>77852927-155705854</t>
+  </si>
+  <si>
     <t>River Styx Sandals</t>
   </si>
   <si>
     <t>Minotaur God</t>
   </si>
   <si>
+    <t>94080027-188160054</t>
+  </si>
+  <si>
     <t>Winged Baby Doll</t>
   </si>
   <si>
-    <t>4000000-8000000</t>
+    <t>113689387-227378773</t>
   </si>
   <si>
     <t>Labyrinth Alchemizer</t>
   </si>
   <si>
-    <t>4500000-9000000</t>
+    <t>137385979-274771958</t>
   </si>
   <si>
     <t>Trained Angelic Swordsmen</t>
   </si>
   <si>
-    <t>4625000-9250000</t>
-  </si>
-  <si>
     <t>Lord of the Storm Giants</t>
   </si>
   <si>
@@ -284,9 +302,15 @@
     <t>Hell God</t>
   </si>
   <si>
+    <t>75518413-151036825</t>
+  </si>
+  <si>
     <t>Archangel Kalix</t>
   </si>
   <si>
+    <t>109166772-218333543</t>
+  </si>
+  <si>
     <t>The Child</t>
   </si>
   <si>
@@ -311,25 +335,43 @@
     <t>Faceless Representation of The Church</t>
   </si>
   <si>
+    <t>2500000000-5000000000</t>
+  </si>
+  <si>
     <t>Delusional Memories</t>
   </si>
   <si>
     <t>Federation Soldier of Corrupted Hate</t>
   </si>
   <si>
+    <t>3134818113-6269636226</t>
+  </si>
+  <si>
     <t>Jesters tolerated hate</t>
   </si>
   <si>
+    <t>3930833841-7861667681</t>
+  </si>
+  <si>
     <t>Celstial Hand of Time</t>
   </si>
   <si>
+    <t>5081350090-10162700179</t>
+  </si>
+  <si>
     <t>Roseary of yesteryear</t>
   </si>
   <si>
     <t>Child of Bones</t>
   </si>
   <si>
+    <t>6436634082-12873268163</t>
+  </si>
+  <si>
     <t>Puppet Master</t>
+  </si>
+  <si>
+    <t>7750000000-15500000000</t>
   </si>
   <si>
     <t>Holy Dirt</t>
@@ -682,17 +724,17 @@
   <cols>
     <col min="1" max="1" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="44.703" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="11.711" bestFit="true" customWidth="true" style="0"/>
@@ -704,8 +746,8 @@
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="26.993" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="22.28" bestFit="true" customWidth="true" style="0"/>
@@ -892,40 +934,40 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="D2">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="E2">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="F2">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="G2">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="H2">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="I2">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="J2">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -940,13 +982,13 @@
         <v>2</v>
       </c>
       <c r="U2">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>0.25</v>
+        <v>0.001</v>
       </c>
       <c r="W2">
-        <v>1000000000</v>
+        <v>25000000</v>
       </c>
       <c r="X2">
         <v>5000</v>
@@ -958,46 +1000,49 @@
         <v>51</v>
       </c>
       <c r="AA2">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="AB2">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AH2">
         <v>0.5</v>
       </c>
       <c r="AI2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="s">
         <v>52</v>
       </c>
       <c r="AP2">
         <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -1008,40 +1053,40 @@
         <v>53</v>
       </c>
       <c r="C3">
-        <v>1000000</v>
+        <v>64585418</v>
       </c>
       <c r="D3">
-        <v>1000000</v>
+        <v>64585418</v>
       </c>
       <c r="E3">
-        <v>1000000</v>
+        <v>64585418</v>
       </c>
       <c r="F3">
-        <v>1000000</v>
+        <v>64585418</v>
       </c>
       <c r="G3">
-        <v>1000000</v>
+        <v>64585418</v>
       </c>
       <c r="H3">
-        <v>1000000</v>
+        <v>64585418</v>
       </c>
       <c r="I3">
-        <v>1000000</v>
+        <v>64585418</v>
       </c>
       <c r="J3">
-        <v>1000000</v>
+        <v>64585418</v>
       </c>
       <c r="K3">
-        <v>0.5</v>
+        <v>0.0027</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.0027</v>
       </c>
       <c r="M3">
-        <v>0.5</v>
+        <v>0.0027</v>
       </c>
       <c r="N3">
-        <v>0.5</v>
+        <v>0.0027</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -1062,13 +1107,13 @@
         <v>7</v>
       </c>
       <c r="U3">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="V3">
-        <v>0.01</v>
+        <v>0.0027</v>
       </c>
       <c r="W3">
-        <v>100000000</v>
+        <v>32292709</v>
       </c>
       <c r="X3">
         <v>500</v>
@@ -1080,25 +1125,25 @@
         <v>54</v>
       </c>
       <c r="AA3">
-        <v>1000000</v>
+        <v>64585418</v>
       </c>
       <c r="AB3">
-        <v>1000000</v>
+        <v>64585418</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.0027</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.0027</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.0027</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.0027</v>
       </c>
       <c r="AG3">
-        <v>0.52</v>
+        <v>0.0027</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1123,6 +1168,9 @@
       </c>
       <c r="AO3" t="s">
         <v>52</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -1133,40 +1181,40 @@
         <v>56</v>
       </c>
       <c r="C4">
-        <v>2000000</v>
+        <v>83425523</v>
       </c>
       <c r="D4">
-        <v>2000000</v>
+        <v>83425523</v>
       </c>
       <c r="E4">
-        <v>2000000</v>
+        <v>83425523</v>
       </c>
       <c r="F4">
-        <v>2000000</v>
+        <v>83425523</v>
       </c>
       <c r="G4">
-        <v>2000000</v>
+        <v>83425523</v>
       </c>
       <c r="H4">
-        <v>2000000</v>
+        <v>83425523</v>
       </c>
       <c r="I4">
-        <v>2000000</v>
+        <v>83425523</v>
       </c>
       <c r="J4">
-        <v>2000000</v>
+        <v>83425523</v>
       </c>
       <c r="K4">
-        <v>0.6</v>
+        <v>0.0072</v>
       </c>
       <c r="L4">
-        <v>0.6</v>
+        <v>0.0072</v>
       </c>
       <c r="M4">
-        <v>0.6</v>
+        <v>0.0072</v>
       </c>
       <c r="N4">
-        <v>0.6</v>
+        <v>0.0072</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -1187,13 +1235,13 @@
         <v>4</v>
       </c>
       <c r="U4">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="V4">
-        <v>0.02</v>
+        <v>0.0072</v>
       </c>
       <c r="W4">
-        <v>200000000</v>
+        <v>41712762</v>
       </c>
       <c r="X4">
         <v>600</v>
@@ -1205,25 +1253,25 @@
         <v>57</v>
       </c>
       <c r="AA4">
-        <v>2000000</v>
+        <v>83425523</v>
       </c>
       <c r="AB4">
-        <v>2000000</v>
+        <v>83425523</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.0072</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.0072</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.0072</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.0072</v>
       </c>
       <c r="AG4">
-        <v>0.55</v>
+        <v>0.0072</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1245,6 +1293,9 @@
       </c>
       <c r="AO4" t="s">
         <v>52</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -1255,40 +1306,40 @@
         <v>58</v>
       </c>
       <c r="C5">
-        <v>3000000</v>
+        <v>107761443</v>
       </c>
       <c r="D5">
-        <v>3000000</v>
+        <v>107761443</v>
       </c>
       <c r="E5">
-        <v>3000000</v>
+        <v>107761443</v>
       </c>
       <c r="F5">
-        <v>3000000</v>
+        <v>107761443</v>
       </c>
       <c r="G5">
-        <v>3000000</v>
+        <v>107761443</v>
       </c>
       <c r="H5">
-        <v>3000000</v>
+        <v>107761443</v>
       </c>
       <c r="I5">
-        <v>3000000</v>
+        <v>107761443</v>
       </c>
       <c r="J5">
-        <v>3000000</v>
+        <v>107761443</v>
       </c>
       <c r="K5">
-        <v>0.65</v>
+        <v>0.0193</v>
       </c>
       <c r="L5">
-        <v>0.65</v>
+        <v>0.0193</v>
       </c>
       <c r="M5">
-        <v>0.65</v>
+        <v>0.0193</v>
       </c>
       <c r="N5">
-        <v>0.65</v>
+        <v>0.0193</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -1309,13 +1360,13 @@
         <v>3</v>
       </c>
       <c r="U5">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="V5">
-        <v>0.05</v>
+        <v>0.0193</v>
       </c>
       <c r="W5">
-        <v>500000000</v>
+        <v>53880722</v>
       </c>
       <c r="X5">
         <v>800</v>
@@ -1327,25 +1378,25 @@
         <v>59</v>
       </c>
       <c r="AA5">
-        <v>3000000</v>
+        <v>107761443</v>
       </c>
       <c r="AB5">
-        <v>3000000</v>
+        <v>107761443</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.0193</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.0193</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.0193</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.0193</v>
       </c>
       <c r="AG5">
-        <v>0.58</v>
+        <v>0.0193</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1367,6 +1418,9 @@
       </c>
       <c r="AO5" t="s">
         <v>52</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -1377,40 +1431,40 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>4000000</v>
+        <v>144963051</v>
       </c>
       <c r="D6">
-        <v>4000000</v>
+        <v>144963051</v>
       </c>
       <c r="E6">
-        <v>4000000</v>
+        <v>144963051</v>
       </c>
       <c r="F6">
-        <v>4000000</v>
+        <v>144963051</v>
       </c>
       <c r="G6">
-        <v>4000000</v>
+        <v>144963051</v>
       </c>
       <c r="H6">
-        <v>4000000</v>
+        <v>144963051</v>
       </c>
       <c r="I6">
-        <v>4000000</v>
+        <v>144963051</v>
       </c>
       <c r="J6">
-        <v>4000000</v>
+        <v>144963051</v>
       </c>
       <c r="K6">
-        <v>0.7</v>
+        <v>0.0539</v>
       </c>
       <c r="L6">
-        <v>0.7</v>
+        <v>0.0539</v>
       </c>
       <c r="M6">
-        <v>0.7</v>
+        <v>0.0539</v>
       </c>
       <c r="N6">
-        <v>0.7</v>
+        <v>0.0539</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1431,13 +1485,13 @@
         <v>6</v>
       </c>
       <c r="U6">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="V6">
-        <v>0.1</v>
+        <v>0.0539</v>
       </c>
       <c r="W6">
-        <v>600000000</v>
+        <v>72481526</v>
       </c>
       <c r="X6">
         <v>900</v>
@@ -1449,25 +1503,25 @@
         <v>61</v>
       </c>
       <c r="AA6">
-        <v>4000000</v>
+        <v>144963051</v>
       </c>
       <c r="AB6">
-        <v>4000000</v>
+        <v>144963051</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.0539</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.0539</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.0539</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.0539</v>
       </c>
       <c r="AG6">
-        <v>0.6</v>
+        <v>0.0539</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1486,6 +1540,9 @@
       </c>
       <c r="AO6" t="s">
         <v>52</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -1496,40 +1553,40 @@
         <v>62</v>
       </c>
       <c r="C7">
-        <v>5000000</v>
+        <v>189159931</v>
       </c>
       <c r="D7">
-        <v>5000000</v>
+        <v>189159931</v>
       </c>
       <c r="E7">
-        <v>5000000</v>
+        <v>189159931</v>
       </c>
       <c r="F7">
-        <v>5000000</v>
+        <v>189159931</v>
       </c>
       <c r="G7">
-        <v>5000000</v>
+        <v>189159931</v>
       </c>
       <c r="H7">
-        <v>5000000</v>
+        <v>189159931</v>
       </c>
       <c r="I7">
-        <v>5000000</v>
+        <v>189159931</v>
       </c>
       <c r="J7">
-        <v>5000000</v>
+        <v>189159931</v>
       </c>
       <c r="K7">
-        <v>0.8</v>
+        <v>0.1462</v>
       </c>
       <c r="L7">
-        <v>0.8</v>
+        <v>0.1462</v>
       </c>
       <c r="M7">
-        <v>0.8</v>
+        <v>0.1462</v>
       </c>
       <c r="N7">
-        <v>0.8</v>
+        <v>0.1462</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -1550,13 +1607,13 @@
         <v>7</v>
       </c>
       <c r="U7">
-        <v>700</v>
+        <v>35</v>
       </c>
       <c r="V7">
-        <v>0.01</v>
+        <v>0.1462</v>
       </c>
       <c r="W7">
-        <v>700000000</v>
+        <v>94579966</v>
       </c>
       <c r="X7">
         <v>1000</v>
@@ -1568,25 +1625,25 @@
         <v>63</v>
       </c>
       <c r="AA7">
-        <v>5000000</v>
+        <v>189159931</v>
       </c>
       <c r="AB7">
-        <v>5000000</v>
+        <v>189159931</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.1462</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.1462</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.1462</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.1462</v>
       </c>
       <c r="AG7">
-        <v>0.7</v>
+        <v>0.1462</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1605,6 +1662,9 @@
       </c>
       <c r="AO7" t="s">
         <v>52</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -1615,40 +1675,40 @@
         <v>64</v>
       </c>
       <c r="C8">
-        <v>6000000</v>
+        <v>246831724</v>
       </c>
       <c r="D8">
-        <v>6000000</v>
+        <v>246831724</v>
       </c>
       <c r="E8">
-        <v>6000000</v>
+        <v>246831724</v>
       </c>
       <c r="F8">
-        <v>6000000</v>
+        <v>246831724</v>
       </c>
       <c r="G8">
-        <v>6000000</v>
+        <v>246831724</v>
       </c>
       <c r="H8">
-        <v>6000000</v>
+        <v>246831724</v>
       </c>
       <c r="I8">
-        <v>6000000</v>
+        <v>246831724</v>
       </c>
       <c r="J8">
-        <v>6000000</v>
+        <v>246831724</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.3962</v>
       </c>
       <c r="L8">
-        <v>0.9</v>
+        <v>0.3962</v>
       </c>
       <c r="M8">
-        <v>0.9</v>
+        <v>0.3962</v>
       </c>
       <c r="N8">
-        <v>0.9</v>
+        <v>0.3962</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1669,13 +1729,13 @@
         <v>3</v>
       </c>
       <c r="U8">
-        <v>800</v>
+        <v>61</v>
       </c>
       <c r="V8">
-        <v>0.05</v>
+        <v>0.3962</v>
       </c>
       <c r="W8">
-        <v>800000000</v>
+        <v>123415862</v>
       </c>
       <c r="X8">
         <v>1100</v>
@@ -1687,25 +1747,25 @@
         <v>65</v>
       </c>
       <c r="AA8">
-        <v>6000000</v>
+        <v>246831724</v>
       </c>
       <c r="AB8">
-        <v>6000000</v>
+        <v>246831724</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0.3962</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0.3962</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0.3962</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.3962</v>
       </c>
       <c r="AG8">
-        <v>0.9</v>
+        <v>0.3962</v>
       </c>
       <c r="AH8">
         <v>0</v>
@@ -1724,6 +1784,9 @@
       </c>
       <c r="AO8" t="s">
         <v>52</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -1734,40 +1797,40 @@
         <v>66</v>
       </c>
       <c r="C9">
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="D9">
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="E9">
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="F9">
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="G9">
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="H9">
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="I9">
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="J9">
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="K9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1788,13 +1851,13 @@
         <v>6</v>
       </c>
       <c r="U9">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="V9">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>900000000</v>
+        <v>150000000</v>
       </c>
       <c r="X9">
         <v>1400</v>
@@ -1806,10 +1869,10 @@
         <v>67</v>
       </c>
       <c r="AA9">
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="AB9">
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -1824,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1843,6 +1906,9 @@
       </c>
       <c r="AO9" t="s">
         <v>52</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -1853,40 +1919,40 @@
         <v>68</v>
       </c>
       <c r="C10">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="D10">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="E10">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="F10">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="G10">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="H10">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="I10">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="J10">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -1901,13 +1967,13 @@
         <v>2</v>
       </c>
       <c r="U10">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>0.25</v>
+        <v>0.001</v>
       </c>
       <c r="W10">
-        <v>1000000000</v>
+        <v>25000000</v>
       </c>
       <c r="X10">
         <v>5000</v>
@@ -1919,40 +1985,40 @@
         <v>51</v>
       </c>
       <c r="AA10">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="AB10">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AH10">
         <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AK10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AL10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -1962,6 +2028,9 @@
       </c>
       <c r="AP10">
         <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -1972,40 +2041,40 @@
         <v>70</v>
       </c>
       <c r="C11">
-        <v>1000000</v>
+        <v>59811560</v>
       </c>
       <c r="D11">
-        <v>1000000</v>
+        <v>59811560</v>
       </c>
       <c r="E11">
-        <v>1000000</v>
+        <v>59811560</v>
       </c>
       <c r="F11">
-        <v>1000000</v>
+        <v>59811560</v>
       </c>
       <c r="G11">
-        <v>1000000</v>
+        <v>59811560</v>
       </c>
       <c r="H11">
-        <v>1000000</v>
+        <v>59811560</v>
       </c>
       <c r="I11">
-        <v>1000000</v>
+        <v>59811560</v>
       </c>
       <c r="J11">
-        <v>1000000</v>
+        <v>59811560</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>0.002</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>0.002</v>
       </c>
       <c r="M11">
-        <v>0.6</v>
+        <v>0.002</v>
       </c>
       <c r="N11">
-        <v>0.6</v>
+        <v>0.002</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -2026,43 +2095,43 @@
         <v>3</v>
       </c>
       <c r="U11">
-        <v>250</v>
+        <v>4</v>
       </c>
       <c r="V11">
-        <v>0.15</v>
+        <v>0.002</v>
       </c>
       <c r="W11">
-        <v>100000000</v>
+        <v>29905780</v>
       </c>
       <c r="X11">
         <v>500</v>
       </c>
       <c r="Y11" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="Z11" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="AA11">
-        <v>1000000</v>
+        <v>59811560</v>
       </c>
       <c r="AB11">
-        <v>1000000</v>
+        <v>59811560</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.002</v>
       </c>
       <c r="AG11">
-        <v>0.55</v>
+        <v>0.002</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -2081,6 +2150,9 @@
       </c>
       <c r="AO11" t="s">
         <v>69</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -2088,43 +2160,43 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12">
-        <v>2000000</v>
+        <v>71548455</v>
       </c>
       <c r="D12">
-        <v>2000000</v>
+        <v>71548455</v>
       </c>
       <c r="E12">
-        <v>2000000</v>
+        <v>71548455</v>
       </c>
       <c r="F12">
-        <v>2000000</v>
+        <v>71548455</v>
       </c>
       <c r="G12">
-        <v>2000000</v>
+        <v>71548455</v>
       </c>
       <c r="H12">
-        <v>2000000</v>
+        <v>71548455</v>
       </c>
       <c r="I12">
-        <v>2000000</v>
+        <v>71548455</v>
       </c>
       <c r="J12">
-        <v>2000000</v>
+        <v>71548455</v>
       </c>
       <c r="K12">
-        <v>0.65</v>
+        <v>0.004</v>
       </c>
       <c r="L12">
-        <v>0.65</v>
+        <v>0.004</v>
       </c>
       <c r="M12">
-        <v>0.65</v>
+        <v>0.004</v>
       </c>
       <c r="N12">
-        <v>0.65</v>
+        <v>0.004</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -2145,43 +2217,43 @@
         <v>4</v>
       </c>
       <c r="U12">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="V12">
-        <v>0.02</v>
+        <v>0.004</v>
       </c>
       <c r="W12">
-        <v>200000000</v>
+        <v>35774228</v>
       </c>
       <c r="X12">
         <v>500</v>
       </c>
       <c r="Y12" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="Z12" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="AA12">
-        <v>2000000</v>
+        <v>71548455</v>
       </c>
       <c r="AB12">
-        <v>2000000</v>
+        <v>71548455</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="AG12">
-        <v>0.9</v>
+        <v>0.004</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -2200,6 +2272,9 @@
       </c>
       <c r="AO12" t="s">
         <v>69</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -2207,43 +2282,43 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13">
-        <v>3000000</v>
+        <v>85588493</v>
       </c>
       <c r="D13">
-        <v>3000000</v>
+        <v>85588493</v>
       </c>
       <c r="E13">
-        <v>3000000</v>
+        <v>85588493</v>
       </c>
       <c r="F13">
-        <v>3000000</v>
+        <v>85588493</v>
       </c>
       <c r="G13">
-        <v>3000000</v>
+        <v>85588493</v>
       </c>
       <c r="H13">
-        <v>3000000</v>
+        <v>85588493</v>
       </c>
       <c r="I13">
-        <v>3000000</v>
+        <v>85588493</v>
       </c>
       <c r="J13">
-        <v>3000000</v>
+        <v>85588493</v>
       </c>
       <c r="K13">
-        <v>0.7</v>
+        <v>0.0079</v>
       </c>
       <c r="L13">
-        <v>0.7</v>
+        <v>0.0079</v>
       </c>
       <c r="M13">
-        <v>0.7</v>
+        <v>0.0079</v>
       </c>
       <c r="N13">
-        <v>0.7</v>
+        <v>0.0079</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -2264,43 +2339,43 @@
         <v>3</v>
       </c>
       <c r="U13">
-        <v>400</v>
+        <v>8</v>
       </c>
       <c r="V13">
-        <v>0.05</v>
+        <v>0.0079</v>
       </c>
       <c r="W13">
-        <v>500000000</v>
+        <v>42794247</v>
       </c>
       <c r="X13">
         <v>600</v>
       </c>
       <c r="Y13" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="AA13">
-        <v>3000000</v>
+        <v>85588493</v>
       </c>
       <c r="AB13">
-        <v>3000000</v>
+        <v>85588493</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.0079</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>0.0079</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>0.0079</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>0.0079</v>
       </c>
       <c r="AG13">
-        <v>0.9</v>
+        <v>0.0079</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -2319,6 +2394,9 @@
       </c>
       <c r="AO13" t="s">
         <v>69</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -2326,43 +2404,43 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C14">
-        <v>4000000</v>
+        <v>102383626</v>
       </c>
       <c r="D14">
-        <v>4000000</v>
+        <v>102383626</v>
       </c>
       <c r="E14">
-        <v>4000000</v>
+        <v>102383626</v>
       </c>
       <c r="F14">
-        <v>4000000</v>
+        <v>102383626</v>
       </c>
       <c r="G14">
-        <v>4000000</v>
+        <v>102383626</v>
       </c>
       <c r="H14">
-        <v>4000000</v>
+        <v>102383626</v>
       </c>
       <c r="I14">
-        <v>4000000</v>
+        <v>102383626</v>
       </c>
       <c r="J14">
-        <v>4000000</v>
+        <v>102383626</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.0158</v>
       </c>
       <c r="L14">
-        <v>0.75</v>
+        <v>0.0158</v>
       </c>
       <c r="M14">
-        <v>0.75</v>
+        <v>0.0158</v>
       </c>
       <c r="N14">
-        <v>0.75</v>
+        <v>0.0158</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -2383,43 +2461,43 @@
         <v>2</v>
       </c>
       <c r="U14">
-        <v>500</v>
+        <v>13</v>
       </c>
       <c r="V14">
-        <v>0.01</v>
+        <v>0.0158</v>
       </c>
       <c r="W14">
-        <v>600000000</v>
+        <v>51191813</v>
       </c>
       <c r="X14">
         <v>600</v>
       </c>
       <c r="Y14" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="AA14">
-        <v>4000000</v>
+        <v>102383626</v>
       </c>
       <c r="AB14">
-        <v>4000000</v>
+        <v>102383626</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0.0158</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>0.0158</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>0.0158</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>0.0158</v>
       </c>
       <c r="AG14">
-        <v>0.58</v>
+        <v>0.0158</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -2438,6 +2516,9 @@
       </c>
       <c r="AO14" t="s">
         <v>69</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -2445,43 +2526,43 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C15">
-        <v>5000000</v>
+        <v>122474488</v>
       </c>
       <c r="D15">
-        <v>5000000</v>
+        <v>122474488</v>
       </c>
       <c r="E15">
-        <v>5000000</v>
+        <v>122474488</v>
       </c>
       <c r="F15">
-        <v>5000000</v>
+        <v>122474488</v>
       </c>
       <c r="G15">
-        <v>5000000</v>
+        <v>122474488</v>
       </c>
       <c r="H15">
-        <v>5000000</v>
+        <v>122474488</v>
       </c>
       <c r="I15">
-        <v>5000000</v>
+        <v>122474488</v>
       </c>
       <c r="J15">
-        <v>5000000</v>
+        <v>122474488</v>
       </c>
       <c r="K15">
-        <v>0.8</v>
+        <v>0.0316</v>
       </c>
       <c r="L15">
-        <v>0.8</v>
+        <v>0.0316</v>
       </c>
       <c r="M15">
-        <v>0.8</v>
+        <v>0.0316</v>
       </c>
       <c r="N15">
-        <v>0.8</v>
+        <v>0.0316</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -2502,43 +2583,43 @@
         <v>6</v>
       </c>
       <c r="U15">
-        <v>600</v>
+        <v>21</v>
       </c>
       <c r="V15">
-        <v>0.1</v>
+        <v>0.0316</v>
       </c>
       <c r="W15">
-        <v>700000000</v>
+        <v>61237244</v>
       </c>
       <c r="X15">
         <v>800</v>
       </c>
       <c r="Y15" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="AA15">
-        <v>5000000</v>
+        <v>122474488</v>
       </c>
       <c r="AB15">
-        <v>5000000</v>
+        <v>122474488</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0.0316</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>0.0316</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>0.0316</v>
       </c>
       <c r="AF15">
-        <v>1</v>
+        <v>0.0316</v>
       </c>
       <c r="AG15">
-        <v>0.9</v>
+        <v>0.0316</v>
       </c>
       <c r="AH15">
         <v>0</v>
@@ -2557,6 +2638,9 @@
       </c>
       <c r="AO15" t="s">
         <v>69</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -2564,43 +2648,43 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C16">
-        <v>6000000</v>
+        <v>155705854</v>
       </c>
       <c r="D16">
-        <v>6000000</v>
+        <v>155705854</v>
       </c>
       <c r="E16">
-        <v>6000000</v>
+        <v>155705854</v>
       </c>
       <c r="F16">
-        <v>6000000</v>
+        <v>155705854</v>
       </c>
       <c r="G16">
-        <v>6000000</v>
+        <v>155705854</v>
       </c>
       <c r="H16">
-        <v>6000000</v>
+        <v>155705854</v>
       </c>
       <c r="I16">
-        <v>6000000</v>
+        <v>155705854</v>
       </c>
       <c r="J16">
-        <v>6000000</v>
+        <v>155705854</v>
       </c>
       <c r="K16">
-        <v>0.85</v>
+        <v>0.0671</v>
       </c>
       <c r="L16">
-        <v>0.85</v>
+        <v>0.0671</v>
       </c>
       <c r="M16">
-        <v>0.85</v>
+        <v>0.0671</v>
       </c>
       <c r="N16">
-        <v>0.85</v>
+        <v>0.0671</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -2621,43 +2705,43 @@
         <v>4</v>
       </c>
       <c r="U16">
-        <v>700</v>
+        <v>34</v>
       </c>
       <c r="V16">
-        <v>0.02</v>
+        <v>0.0671</v>
       </c>
       <c r="W16">
-        <v>800000000</v>
+        <v>77852927</v>
       </c>
       <c r="X16">
         <v>800</v>
       </c>
       <c r="Y16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AA16">
-        <v>6000000</v>
+        <v>155705854</v>
       </c>
       <c r="AB16">
-        <v>6000000</v>
+        <v>155705854</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0.0671</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>0.0671</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>0.0671</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>0.0671</v>
       </c>
       <c r="AG16">
-        <v>0.6</v>
+        <v>0.0671</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2675,13 +2759,16 @@
         <v>0</v>
       </c>
       <c r="AM16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AN16">
         <v>0.2</v>
       </c>
       <c r="AO16" t="s">
         <v>69</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:50">
@@ -2689,43 +2776,43 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C17">
-        <v>7000000</v>
+        <v>188160054</v>
       </c>
       <c r="D17">
-        <v>7000000</v>
+        <v>188160054</v>
       </c>
       <c r="E17">
-        <v>7000000</v>
+        <v>188160054</v>
       </c>
       <c r="F17">
-        <v>7000000</v>
+        <v>188160054</v>
       </c>
       <c r="G17">
-        <v>7000000</v>
+        <v>188160054</v>
       </c>
       <c r="H17">
-        <v>7000000</v>
+        <v>188160054</v>
       </c>
       <c r="I17">
-        <v>7000000</v>
+        <v>188160054</v>
       </c>
       <c r="J17">
-        <v>7000000</v>
+        <v>188160054</v>
       </c>
       <c r="K17">
-        <v>0.9</v>
+        <v>0.1352</v>
       </c>
       <c r="L17">
-        <v>0.9</v>
+        <v>0.1352</v>
       </c>
       <c r="M17">
-        <v>0.9</v>
+        <v>0.1352</v>
       </c>
       <c r="N17">
-        <v>0.9</v>
+        <v>0.1352</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -2746,43 +2833,43 @@
         <v>3</v>
       </c>
       <c r="U17">
-        <v>800</v>
+        <v>54</v>
       </c>
       <c r="V17">
-        <v>0.05</v>
+        <v>0.1352</v>
       </c>
       <c r="W17">
-        <v>900000000</v>
+        <v>94080027</v>
       </c>
       <c r="X17">
         <v>900</v>
       </c>
       <c r="Y17" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="Z17" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="AA17">
-        <v>7000000</v>
+        <v>188160054</v>
       </c>
       <c r="AB17">
-        <v>7000000</v>
+        <v>188160054</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0.1352</v>
       </c>
       <c r="AD17">
-        <v>1</v>
+        <v>0.1352</v>
       </c>
       <c r="AE17">
-        <v>1</v>
+        <v>0.1352</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>0.1352</v>
       </c>
       <c r="AG17">
-        <v>0.65</v>
+        <v>0.1352</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -2801,6 +2888,9 @@
       </c>
       <c r="AO17" t="s">
         <v>69</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:50">
@@ -2808,43 +2898,43 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C18">
-        <v>8000000</v>
+        <v>227378773</v>
       </c>
       <c r="D18">
-        <v>8000000</v>
+        <v>227378773</v>
       </c>
       <c r="E18">
-        <v>8000000</v>
+        <v>227378773</v>
       </c>
       <c r="F18">
-        <v>8000000</v>
+        <v>227378773</v>
       </c>
       <c r="G18">
-        <v>8000000</v>
+        <v>227378773</v>
       </c>
       <c r="H18">
-        <v>8000000</v>
+        <v>227378773</v>
       </c>
       <c r="I18">
-        <v>8000000</v>
+        <v>227378773</v>
       </c>
       <c r="J18">
-        <v>8000000</v>
+        <v>227378773</v>
       </c>
       <c r="K18">
-        <v>0.925</v>
+        <v>0.2724</v>
       </c>
       <c r="L18">
-        <v>0.925</v>
+        <v>0.2724</v>
       </c>
       <c r="M18">
-        <v>0.925</v>
+        <v>0.2724</v>
       </c>
       <c r="N18">
-        <v>0.925</v>
+        <v>0.2724</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -2865,43 +2955,43 @@
         <v>6</v>
       </c>
       <c r="U18">
-        <v>900</v>
+        <v>87</v>
       </c>
       <c r="V18">
-        <v>0.1</v>
+        <v>0.2724</v>
       </c>
       <c r="W18">
-        <v>925000000</v>
+        <v>113689387</v>
       </c>
       <c r="X18">
         <v>1000</v>
       </c>
       <c r="Y18" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Z18" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AA18">
-        <v>8000000</v>
+        <v>227378773</v>
       </c>
       <c r="AB18">
-        <v>8000000</v>
+        <v>227378773</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>0.2724</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <v>0.2724</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>0.2724</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <v>0.2724</v>
       </c>
       <c r="AG18">
-        <v>0.7</v>
+        <v>0.2724</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2920,6 +3010,9 @@
       </c>
       <c r="AO18" t="s">
         <v>69</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:50">
@@ -2927,43 +3020,43 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C19">
-        <v>9000000</v>
+        <v>274771958</v>
       </c>
       <c r="D19">
-        <v>9000000</v>
+        <v>274771958</v>
       </c>
       <c r="E19">
-        <v>9000000</v>
+        <v>274771958</v>
       </c>
       <c r="F19">
-        <v>9000000</v>
+        <v>274771958</v>
       </c>
       <c r="G19">
-        <v>9000000</v>
+        <v>274771958</v>
       </c>
       <c r="H19">
-        <v>9000000</v>
+        <v>274771958</v>
       </c>
       <c r="I19">
-        <v>9000000</v>
+        <v>274771958</v>
       </c>
       <c r="J19">
-        <v>9000000</v>
+        <v>274771958</v>
       </c>
       <c r="K19">
-        <v>0.95</v>
+        <v>0.5491</v>
       </c>
       <c r="L19">
-        <v>0.95</v>
+        <v>0.5491</v>
       </c>
       <c r="M19">
-        <v>0.95</v>
+        <v>0.5491</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>0.5491</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -2984,43 +3077,43 @@
         <v>3</v>
       </c>
       <c r="U19">
-        <v>950</v>
+        <v>139</v>
       </c>
       <c r="V19">
-        <v>0.15</v>
+        <v>0.5491</v>
       </c>
       <c r="W19">
-        <v>950000000</v>
+        <v>137385979</v>
       </c>
       <c r="X19">
         <v>1100</v>
       </c>
       <c r="Y19" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="Z19" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AA19">
-        <v>9000000</v>
+        <v>274771958</v>
       </c>
       <c r="AB19">
-        <v>9000000</v>
+        <v>274771958</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0.5491</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0.5491</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>0.5491</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>0.5491</v>
       </c>
       <c r="AG19">
-        <v>0.8</v>
+        <v>0.5491</v>
       </c>
       <c r="AH19">
         <v>0</v>
@@ -3039,6 +3132,9 @@
       </c>
       <c r="AO19" t="s">
         <v>69</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:50">
@@ -3046,43 +3142,43 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C20">
-        <v>9250000</v>
+        <v>300000000</v>
       </c>
       <c r="D20">
-        <v>9250000</v>
+        <v>300000000</v>
       </c>
       <c r="E20">
-        <v>9250000</v>
+        <v>300000000</v>
       </c>
       <c r="F20">
-        <v>9250000</v>
+        <v>300000000</v>
       </c>
       <c r="G20">
-        <v>9250000</v>
+        <v>300000000</v>
       </c>
       <c r="H20">
-        <v>9250000</v>
+        <v>300000000</v>
       </c>
       <c r="I20">
-        <v>9250000</v>
+        <v>300000000</v>
       </c>
       <c r="J20">
-        <v>9250000</v>
+        <v>300000000</v>
       </c>
       <c r="K20">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -3103,28 +3199,28 @@
         <v>2</v>
       </c>
       <c r="U20">
-        <v>975</v>
+        <v>200</v>
       </c>
       <c r="V20">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>975000000</v>
+        <v>150000000</v>
       </c>
       <c r="X20">
         <v>1400</v>
       </c>
       <c r="Y20" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="Z20" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AA20">
-        <v>9250000</v>
+        <v>300000000</v>
       </c>
       <c r="AB20">
-        <v>9250000</v>
+        <v>300000000</v>
       </c>
       <c r="AC20">
         <v>1</v>
@@ -3139,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="AG20">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -3158,6 +3254,9 @@
       </c>
       <c r="AO20" t="s">
         <v>69</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:50">
@@ -3165,43 +3264,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C21">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="D21">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="E21">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="F21">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="G21">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="H21">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="I21">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="J21">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -3216,13 +3315,13 @@
         <v>5</v>
       </c>
       <c r="U21">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>0.25</v>
+        <v>0.001</v>
       </c>
       <c r="W21">
-        <v>1000000000</v>
+        <v>25000000</v>
       </c>
       <c r="X21">
         <v>5000</v>
@@ -3234,49 +3333,52 @@
         <v>51</v>
       </c>
       <c r="AA21">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="AB21">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AD21">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AF21">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AG21">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AH21">
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AK21">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AL21">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AN21">
         <v>0</v>
       </c>
       <c r="AO21" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AP21">
         <v>1</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:50">
@@ -3284,43 +3386,43 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C22">
-        <v>1000000</v>
+        <v>71548455</v>
       </c>
       <c r="D22">
-        <v>1000000</v>
+        <v>71548455</v>
       </c>
       <c r="E22">
-        <v>1000000</v>
+        <v>71548455</v>
       </c>
       <c r="F22">
-        <v>1000000</v>
+        <v>71548455</v>
       </c>
       <c r="G22">
-        <v>1000000</v>
+        <v>71548455</v>
       </c>
       <c r="H22">
-        <v>1000000</v>
+        <v>71548455</v>
       </c>
       <c r="I22">
-        <v>1000000</v>
+        <v>71548455</v>
       </c>
       <c r="J22">
-        <v>1000000</v>
+        <v>71548455</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0.004</v>
       </c>
       <c r="L22">
-        <v>0.5</v>
+        <v>0.004</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>0.004</v>
       </c>
       <c r="N22">
-        <v>0.5</v>
+        <v>0.004</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -3341,43 +3443,43 @@
         <v>3</v>
       </c>
       <c r="U22">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="V22">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="W22">
-        <v>200000</v>
+        <v>35774228</v>
       </c>
       <c r="X22">
         <v>900</v>
       </c>
       <c r="Y22" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="Z22" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="AA22">
-        <v>1000000</v>
+        <v>71548455</v>
       </c>
       <c r="AB22">
-        <v>1000000</v>
+        <v>71548455</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="AF22">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="AG22">
-        <v>0.8</v>
+        <v>0.004</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3395,7 +3497,10 @@
         <v>0</v>
       </c>
       <c r="AO22" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:50">
@@ -3403,43 +3508,43 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C23">
-        <v>2000000</v>
+        <v>102383626</v>
       </c>
       <c r="D23">
-        <v>2000000</v>
+        <v>102383626</v>
       </c>
       <c r="E23">
-        <v>2000000</v>
+        <v>102383626</v>
       </c>
       <c r="F23">
-        <v>2000000</v>
+        <v>102383626</v>
       </c>
       <c r="G23">
-        <v>2000000</v>
+        <v>102383626</v>
       </c>
       <c r="H23">
-        <v>2000000</v>
+        <v>102383626</v>
       </c>
       <c r="I23">
-        <v>2000000</v>
+        <v>102383626</v>
       </c>
       <c r="J23">
-        <v>2000000</v>
+        <v>102383626</v>
       </c>
       <c r="K23">
-        <v>0.6</v>
+        <v>0.0158</v>
       </c>
       <c r="L23">
-        <v>0.6</v>
+        <v>0.0158</v>
       </c>
       <c r="M23">
-        <v>0.6</v>
+        <v>0.0158</v>
       </c>
       <c r="N23">
-        <v>0.6</v>
+        <v>0.0158</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -3460,43 +3565,43 @@
         <v>4</v>
       </c>
       <c r="U23">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="V23">
-        <v>0.02</v>
+        <v>0.0158</v>
       </c>
       <c r="W23">
-        <v>225000</v>
+        <v>51191813</v>
       </c>
       <c r="X23">
         <v>1000</v>
       </c>
       <c r="Y23" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AA23">
-        <v>2000000</v>
+        <v>102383626</v>
       </c>
       <c r="AB23">
-        <v>2000000</v>
+        <v>102383626</v>
       </c>
       <c r="AC23">
-        <v>1</v>
+        <v>0.0158</v>
       </c>
       <c r="AD23">
-        <v>1</v>
+        <v>0.0158</v>
       </c>
       <c r="AE23">
-        <v>1</v>
+        <v>0.0158</v>
       </c>
       <c r="AF23">
-        <v>1</v>
+        <v>0.0158</v>
       </c>
       <c r="AG23">
-        <v>0.85</v>
+        <v>0.0158</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -3514,7 +3619,10 @@
         <v>0</v>
       </c>
       <c r="AO23" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:50">
@@ -3522,43 +3630,43 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C24">
-        <v>3000000</v>
+        <v>151036825</v>
       </c>
       <c r="D24">
-        <v>3000000</v>
+        <v>151036825</v>
       </c>
       <c r="E24">
-        <v>3000000</v>
+        <v>151036825</v>
       </c>
       <c r="F24">
-        <v>3000000</v>
+        <v>151036825</v>
       </c>
       <c r="G24">
-        <v>3000000</v>
+        <v>151036825</v>
       </c>
       <c r="H24">
-        <v>3000000</v>
+        <v>151036825</v>
       </c>
       <c r="I24">
-        <v>3000000</v>
+        <v>151036825</v>
       </c>
       <c r="J24">
-        <v>3000000</v>
+        <v>151036825</v>
       </c>
       <c r="K24">
-        <v>0.7</v>
+        <v>0.065</v>
       </c>
       <c r="L24">
-        <v>0.7</v>
+        <v>0.065</v>
       </c>
       <c r="M24">
-        <v>0.7</v>
+        <v>0.065</v>
       </c>
       <c r="N24">
-        <v>0.7</v>
+        <v>0.065</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -3579,43 +3687,43 @@
         <v>3</v>
       </c>
       <c r="U24">
-        <v>700</v>
+        <v>38</v>
       </c>
       <c r="V24">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="W24">
-        <v>250000</v>
+        <v>75518413</v>
       </c>
       <c r="X24">
         <v>1100</v>
       </c>
       <c r="Y24" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="Z24" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="AA24">
-        <v>3000000</v>
+        <v>151036825</v>
       </c>
       <c r="AB24">
-        <v>3000000</v>
+        <v>151036825</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0.065</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0.065</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>0.065</v>
       </c>
       <c r="AF24">
-        <v>1</v>
+        <v>0.065</v>
       </c>
       <c r="AG24">
-        <v>0.9</v>
+        <v>0.065</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -3633,7 +3741,10 @@
         <v>0</v>
       </c>
       <c r="AO24" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:50">
@@ -3641,43 +3752,43 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C25">
-        <v>4000000</v>
+        <v>218333543</v>
       </c>
       <c r="D25">
-        <v>4000000</v>
+        <v>218333543</v>
       </c>
       <c r="E25">
-        <v>4000000</v>
+        <v>218333543</v>
       </c>
       <c r="F25">
-        <v>4000000</v>
+        <v>218333543</v>
       </c>
       <c r="G25">
-        <v>4000000</v>
+        <v>218333543</v>
       </c>
       <c r="H25">
-        <v>4000000</v>
+        <v>218333543</v>
       </c>
       <c r="I25">
-        <v>4000000</v>
+        <v>218333543</v>
       </c>
       <c r="J25">
-        <v>4000000</v>
+        <v>218333543</v>
       </c>
       <c r="K25">
-        <v>0.8</v>
+        <v>0.2616</v>
       </c>
       <c r="L25">
-        <v>0.8</v>
+        <v>0.2616</v>
       </c>
       <c r="M25">
-        <v>0.8</v>
+        <v>0.2616</v>
       </c>
       <c r="N25">
-        <v>0.8</v>
+        <v>0.2616</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -3698,43 +3809,43 @@
         <v>6</v>
       </c>
       <c r="U25">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="V25">
-        <v>0.1</v>
+        <v>0.2616</v>
       </c>
       <c r="W25">
-        <v>275000</v>
+        <v>109166772</v>
       </c>
       <c r="X25">
         <v>1400</v>
       </c>
       <c r="Y25" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="Z25" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="AA25">
-        <v>4000000</v>
+        <v>218333543</v>
       </c>
       <c r="AB25">
-        <v>4000000</v>
+        <v>218333543</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0.2616</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0.2616</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>0.2616</v>
       </c>
       <c r="AF25">
-        <v>1</v>
+        <v>0.2616</v>
       </c>
       <c r="AG25">
-        <v>1</v>
+        <v>0.2616</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -3752,7 +3863,10 @@
         <v>0</v>
       </c>
       <c r="AO25" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:50">
@@ -3760,43 +3874,43 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C26">
-        <v>5000000</v>
+        <v>300000000</v>
       </c>
       <c r="D26">
-        <v>5000000</v>
+        <v>300000000</v>
       </c>
       <c r="E26">
-        <v>5000000</v>
+        <v>300000000</v>
       </c>
       <c r="F26">
-        <v>5000000</v>
+        <v>300000000</v>
       </c>
       <c r="G26">
-        <v>5000000</v>
+        <v>300000000</v>
       </c>
       <c r="H26">
-        <v>5000000</v>
+        <v>300000000</v>
       </c>
       <c r="I26">
-        <v>5000000</v>
+        <v>300000000</v>
       </c>
       <c r="J26">
-        <v>5000000</v>
+        <v>300000000</v>
       </c>
       <c r="K26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3817,28 +3931,28 @@
         <v>3</v>
       </c>
       <c r="U26">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="V26">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="W26">
-        <v>300000</v>
+        <v>150000000</v>
       </c>
       <c r="X26">
         <v>2000</v>
       </c>
       <c r="Y26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Z26" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="AA26">
-        <v>5000000</v>
+        <v>300000000</v>
       </c>
       <c r="AB26">
-        <v>5000000</v>
+        <v>300000000</v>
       </c>
       <c r="AC26">
         <v>1</v>
@@ -3871,7 +3985,10 @@
         <v>0</v>
       </c>
       <c r="AO26" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:50">
@@ -3879,43 +3996,43 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C27">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="D27">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="E27">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="F27">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="G27">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="H27">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="I27">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="J27">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -3930,13 +4047,13 @@
         <v>6</v>
       </c>
       <c r="U27">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>0.25</v>
+        <v>0.001</v>
       </c>
       <c r="W27">
-        <v>1000000000</v>
+        <v>25000000</v>
       </c>
       <c r="X27">
         <v>5000</v>
@@ -3948,49 +4065,52 @@
         <v>51</v>
       </c>
       <c r="AA27">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="AB27">
-        <v>10000000</v>
+        <v>50000000</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AD27">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AE27">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AF27">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AG27">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AH27">
         <v>1</v>
       </c>
       <c r="AI27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AK27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AN27">
         <v>0</v>
       </c>
       <c r="AO27" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="AP27">
         <v>1</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:50">
@@ -3998,43 +4118,43 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C28">
-        <v>7000000</v>
+        <v>122474488</v>
       </c>
       <c r="D28">
-        <v>7000000</v>
+        <v>122474488</v>
       </c>
       <c r="E28">
-        <v>7000000</v>
+        <v>122474488</v>
       </c>
       <c r="F28">
-        <v>7000000</v>
+        <v>122474488</v>
       </c>
       <c r="G28">
-        <v>7000000</v>
+        <v>122474488</v>
       </c>
       <c r="H28">
-        <v>7000000</v>
+        <v>122474488</v>
       </c>
       <c r="I28">
-        <v>7000000</v>
+        <v>122474488</v>
       </c>
       <c r="J28">
-        <v>7000000</v>
+        <v>122474488</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.0316</v>
       </c>
       <c r="L28">
-        <v>0.6</v>
+        <v>0.0316</v>
       </c>
       <c r="M28">
-        <v>0.6</v>
+        <v>0.0316</v>
       </c>
       <c r="N28">
-        <v>0.6</v>
+        <v>0.0316</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -4055,43 +4175,43 @@
         <v>7</v>
       </c>
       <c r="U28">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="V28">
-        <v>0.1</v>
+        <v>0.0316</v>
       </c>
       <c r="W28">
-        <v>500000</v>
+        <v>61237244</v>
       </c>
       <c r="X28">
         <v>600</v>
       </c>
       <c r="Y28" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="AA28">
-        <v>7000000</v>
+        <v>122474488</v>
       </c>
       <c r="AB28">
-        <v>7000000</v>
+        <v>122474488</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>0.0316</v>
       </c>
       <c r="AD28">
-        <v>1</v>
+        <v>0.0316</v>
       </c>
       <c r="AE28">
-        <v>1</v>
+        <v>0.0316</v>
       </c>
       <c r="AF28">
-        <v>1</v>
+        <v>0.0316</v>
       </c>
       <c r="AG28">
-        <v>0.75</v>
+        <v>0.0316</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -4109,13 +4229,16 @@
         <v>0</v>
       </c>
       <c r="AM28" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AN28">
         <v>1</v>
       </c>
       <c r="AO28" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:50">
@@ -4123,43 +4246,43 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C29">
-        <v>8000000</v>
+        <v>300000000</v>
       </c>
       <c r="D29">
-        <v>8000000</v>
+        <v>300000000</v>
       </c>
       <c r="E29">
-        <v>8000000</v>
+        <v>300000000</v>
       </c>
       <c r="F29">
-        <v>8000000</v>
+        <v>300000000</v>
       </c>
       <c r="G29">
-        <v>8000000</v>
+        <v>300000000</v>
       </c>
       <c r="H29">
-        <v>8000000</v>
+        <v>300000000</v>
       </c>
       <c r="I29">
-        <v>8000000</v>
+        <v>300000000</v>
       </c>
       <c r="J29">
-        <v>8000000</v>
+        <v>300000000</v>
       </c>
       <c r="K29">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -4180,28 +4303,28 @@
         <v>4</v>
       </c>
       <c r="U29">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="V29">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="W29">
-        <v>1000000</v>
+        <v>150000000</v>
       </c>
       <c r="X29">
         <v>800</v>
       </c>
       <c r="Y29" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="Z29" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="AA29">
-        <v>8000000</v>
+        <v>300000000</v>
       </c>
       <c r="AB29">
-        <v>8000000</v>
+        <v>300000000</v>
       </c>
       <c r="AC29">
         <v>1</v>
@@ -4234,57 +4357,60 @@
         <v>0</v>
       </c>
       <c r="AM29" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AN29">
         <v>1</v>
       </c>
       <c r="AO29" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:50">
       <c r="A30">
-        <v>528</v>
+        <v>426</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C30">
-        <v>10000000</v>
+        <v>5000000000</v>
       </c>
       <c r="D30">
-        <v>10000000</v>
+        <v>5000000000</v>
       </c>
       <c r="E30">
-        <v>10000000</v>
+        <v>5000000000</v>
       </c>
       <c r="F30">
-        <v>10000000</v>
+        <v>5000000000</v>
       </c>
       <c r="G30">
-        <v>10000000</v>
+        <v>5000000000</v>
       </c>
       <c r="H30">
-        <v>10000000</v>
+        <v>5000000000</v>
       </c>
       <c r="I30">
-        <v>10000000</v>
+        <v>5000000000</v>
       </c>
       <c r="J30">
-        <v>10000000</v>
+        <v>5000000000</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="O30">
         <v>1</v>
@@ -4299,111 +4425,123 @@
         <v>5</v>
       </c>
       <c r="U30">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="V30">
-        <v>0.25</v>
+        <v>0.001</v>
       </c>
       <c r="W30">
-        <v>1000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="X30">
         <v>5000</v>
       </c>
       <c r="Y30" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="Z30" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="AA30">
-        <v>10000000</v>
+        <v>5000000000</v>
       </c>
       <c r="AB30">
-        <v>10000000</v>
+        <v>5000000000</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AD30">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AE30">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AF30">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AG30">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="AH30">
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>0.4</v>
+        <v>0.001</v>
       </c>
       <c r="AJ30">
-        <v>0.4</v>
+        <v>0.001</v>
       </c>
       <c r="AK30">
-        <v>0.4</v>
+        <v>0.001</v>
       </c>
       <c r="AL30">
-        <v>0.4</v>
+        <v>0.001</v>
       </c>
       <c r="AN30">
         <v>0</v>
       </c>
       <c r="AO30" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AP30">
         <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>0.075</v>
+      </c>
+      <c r="AR30">
+        <v>0.075</v>
+      </c>
+      <c r="AS30">
+        <v>0.15</v>
+      </c>
+      <c r="AW30">
+        <v>0.001</v>
       </c>
     </row>
     <row r="31" spans="1:50">
       <c r="A31">
-        <v>523</v>
+        <v>427</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C31">
-        <v>1000000</v>
+        <v>6269636226</v>
       </c>
       <c r="D31">
-        <v>1000000</v>
+        <v>6269636226</v>
       </c>
       <c r="E31">
-        <v>1000000</v>
+        <v>6269636226</v>
       </c>
       <c r="F31">
-        <v>1000000</v>
+        <v>6269636226</v>
       </c>
       <c r="G31">
-        <v>1000000</v>
+        <v>6269636226</v>
       </c>
       <c r="H31">
-        <v>1000000</v>
+        <v>6269636226</v>
       </c>
       <c r="I31">
-        <v>1000000</v>
+        <v>6269636226</v>
       </c>
       <c r="J31">
-        <v>1000000</v>
+        <v>6269636226</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.004</v>
       </c>
       <c r="L31">
-        <v>0.5</v>
+        <v>0.004</v>
       </c>
       <c r="M31">
-        <v>0.5</v>
+        <v>0.004</v>
       </c>
       <c r="N31">
-        <v>0.5</v>
+        <v>0.004</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -4424,105 +4562,117 @@
         <v>3</v>
       </c>
       <c r="U31">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="V31">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="W31">
-        <v>200000</v>
+        <v>3134818113</v>
       </c>
       <c r="X31">
         <v>900</v>
       </c>
       <c r="Y31" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="Z31" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="AA31">
-        <v>1000000</v>
+        <v>6269636226</v>
       </c>
       <c r="AB31">
-        <v>1000000</v>
+        <v>6269636226</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="AD31">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="AE31">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="AF31">
-        <v>1</v>
+        <v>0.004</v>
       </c>
       <c r="AG31">
-        <v>0.8</v>
+        <v>0.004</v>
       </c>
       <c r="AH31">
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AO31" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="AQ31">
+        <v>0.0973</v>
+      </c>
+      <c r="AR31">
+        <v>0.0973</v>
+      </c>
+      <c r="AS31">
+        <v>0.1945</v>
+      </c>
+      <c r="AW31">
+        <v>0.004</v>
       </c>
     </row>
     <row r="32" spans="1:50">
       <c r="A32">
-        <v>524</v>
+        <v>428</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C32">
-        <v>2000000</v>
+        <v>7861667681</v>
       </c>
       <c r="D32">
-        <v>2000000</v>
+        <v>7861667681</v>
       </c>
       <c r="E32">
-        <v>2000000</v>
+        <v>7861667681</v>
       </c>
       <c r="F32">
-        <v>2000000</v>
+        <v>7861667681</v>
       </c>
       <c r="G32">
-        <v>2000000</v>
+        <v>7861667681</v>
       </c>
       <c r="H32">
-        <v>2000000</v>
+        <v>7861667681</v>
       </c>
       <c r="I32">
-        <v>2000000</v>
+        <v>7861667681</v>
       </c>
       <c r="J32">
-        <v>2000000</v>
+        <v>7861667681</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>0.0158</v>
       </c>
       <c r="L32">
-        <v>0.6</v>
+        <v>0.0158</v>
       </c>
       <c r="M32">
-        <v>0.6</v>
+        <v>0.0158</v>
       </c>
       <c r="N32">
-        <v>0.6</v>
+        <v>0.0158</v>
       </c>
       <c r="O32">
         <v>1</v>
@@ -4543,105 +4693,117 @@
         <v>4</v>
       </c>
       <c r="U32">
-        <v>500</v>
+        <v>387</v>
       </c>
       <c r="V32">
-        <v>0.02</v>
+        <v>0.0158</v>
       </c>
       <c r="W32">
-        <v>225000</v>
+        <v>3930833841</v>
       </c>
       <c r="X32">
         <v>1000</v>
       </c>
       <c r="Y32" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="Z32" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="AA32">
-        <v>2000000</v>
+        <v>7861667681</v>
       </c>
       <c r="AB32">
-        <v>2000000</v>
+        <v>7861667681</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>0.0158</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>0.0158</v>
       </c>
       <c r="AE32">
-        <v>1</v>
+        <v>0.0158</v>
       </c>
       <c r="AF32">
-        <v>1</v>
+        <v>0.0158</v>
       </c>
       <c r="AG32">
-        <v>0.85</v>
+        <v>0.0158</v>
       </c>
       <c r="AH32">
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>0.0158</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>0.0158</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>0.0158</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>0.0158</v>
       </c>
       <c r="AO32" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="AQ32">
+        <v>0.1261</v>
+      </c>
+      <c r="AR32">
+        <v>0.1261</v>
+      </c>
+      <c r="AS32">
+        <v>0.2522</v>
+      </c>
+      <c r="AW32">
+        <v>0.0158</v>
       </c>
     </row>
     <row r="33" spans="1:50">
       <c r="A33">
-        <v>525</v>
+        <v>429</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C33">
-        <v>3000000</v>
+        <v>10162700179</v>
       </c>
       <c r="D33">
-        <v>3000000</v>
+        <v>10162700179</v>
       </c>
       <c r="E33">
-        <v>3000000</v>
+        <v>10162700179</v>
       </c>
       <c r="F33">
-        <v>3000000</v>
+        <v>10162700179</v>
       </c>
       <c r="G33">
-        <v>3000000</v>
+        <v>10162700179</v>
       </c>
       <c r="H33">
-        <v>3000000</v>
+        <v>10162700179</v>
       </c>
       <c r="I33">
-        <v>3000000</v>
+        <v>10162700179</v>
       </c>
       <c r="J33">
-        <v>3000000</v>
+        <v>10162700179</v>
       </c>
       <c r="K33">
-        <v>0.7</v>
+        <v>0.065</v>
       </c>
       <c r="L33">
-        <v>0.7</v>
+        <v>0.065</v>
       </c>
       <c r="M33">
-        <v>0.7</v>
+        <v>0.065</v>
       </c>
       <c r="N33">
-        <v>0.7</v>
+        <v>0.065</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -4662,111 +4824,123 @@
         <v>3</v>
       </c>
       <c r="U33">
-        <v>700</v>
+        <v>935</v>
       </c>
       <c r="V33">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="W33">
-        <v>250000</v>
+        <v>5081350090</v>
       </c>
       <c r="X33">
         <v>1100</v>
       </c>
       <c r="Y33" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="Z33" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="AA33">
-        <v>3000000</v>
+        <v>10162700179</v>
       </c>
       <c r="AB33">
-        <v>3000000</v>
+        <v>10162700179</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0.065</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>0.065</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>0.065</v>
       </c>
       <c r="AF33">
-        <v>1</v>
+        <v>0.065</v>
       </c>
       <c r="AG33">
-        <v>0.9</v>
+        <v>0.065</v>
       </c>
       <c r="AH33">
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="AM33" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="AN33">
         <v>0.01</v>
       </c>
       <c r="AO33" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="AQ33">
+        <v>0.1686</v>
+      </c>
+      <c r="AR33">
+        <v>0.1686</v>
+      </c>
+      <c r="AS33">
+        <v>0.3372</v>
+      </c>
+      <c r="AW33">
+        <v>0.065</v>
       </c>
     </row>
     <row r="34" spans="1:50">
       <c r="A34">
-        <v>526</v>
+        <v>430</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="C34">
-        <v>4000000</v>
+        <v>12873268163</v>
       </c>
       <c r="D34">
-        <v>4000000</v>
+        <v>12873268163</v>
       </c>
       <c r="E34">
-        <v>4000000</v>
+        <v>12873268163</v>
       </c>
       <c r="F34">
-        <v>4000000</v>
+        <v>12873268163</v>
       </c>
       <c r="G34">
-        <v>4000000</v>
+        <v>12873268163</v>
       </c>
       <c r="H34">
-        <v>4000000</v>
+        <v>12873268163</v>
       </c>
       <c r="I34">
-        <v>4000000</v>
+        <v>12873268163</v>
       </c>
       <c r="J34">
-        <v>4000000</v>
+        <v>12873268163</v>
       </c>
       <c r="K34">
-        <v>0.8</v>
+        <v>0.2616</v>
       </c>
       <c r="L34">
-        <v>0.8</v>
+        <v>0.2616</v>
       </c>
       <c r="M34">
-        <v>0.8</v>
+        <v>0.2616</v>
       </c>
       <c r="N34">
-        <v>0.8</v>
+        <v>0.2616</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -4787,105 +4961,117 @@
         <v>6</v>
       </c>
       <c r="U34">
-        <v>800</v>
+        <v>2218</v>
       </c>
       <c r="V34">
-        <v>0.1</v>
+        <v>0.2616</v>
       </c>
       <c r="W34">
-        <v>275000</v>
+        <v>6436634082</v>
       </c>
       <c r="X34">
         <v>1400</v>
       </c>
       <c r="Y34" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="Z34" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="AA34">
-        <v>4000000</v>
+        <v>12873268163</v>
       </c>
       <c r="AB34">
-        <v>4000000</v>
+        <v>12873268163</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>0.2616</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>0.2616</v>
       </c>
       <c r="AE34">
-        <v>1</v>
+        <v>0.2616</v>
       </c>
       <c r="AF34">
-        <v>1</v>
+        <v>0.2616</v>
       </c>
       <c r="AG34">
-        <v>1</v>
+        <v>0.2616</v>
       </c>
       <c r="AH34">
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>0.2616</v>
       </c>
       <c r="AJ34">
-        <v>0</v>
+        <v>0.2616</v>
       </c>
       <c r="AK34">
-        <v>0</v>
+        <v>0.2616</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>0.2616</v>
       </c>
       <c r="AO34" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="AQ34">
+        <v>0.2209</v>
+      </c>
+      <c r="AR34">
+        <v>0.2209</v>
+      </c>
+      <c r="AS34">
+        <v>0.4417</v>
+      </c>
+      <c r="AW34">
+        <v>0.2616</v>
       </c>
     </row>
     <row r="35" spans="1:50">
       <c r="A35">
-        <v>527</v>
+        <v>431</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C35">
-        <v>5000000</v>
+        <v>15500000000</v>
       </c>
       <c r="D35">
-        <v>5000000</v>
+        <v>15500000000</v>
       </c>
       <c r="E35">
-        <v>5000000</v>
+        <v>15500000000</v>
       </c>
       <c r="F35">
-        <v>5000000</v>
+        <v>15500000000</v>
       </c>
       <c r="G35">
-        <v>5000000</v>
+        <v>15500000000</v>
       </c>
       <c r="H35">
-        <v>5000000</v>
+        <v>15500000000</v>
       </c>
       <c r="I35">
-        <v>5000000</v>
+        <v>15500000000</v>
       </c>
       <c r="J35">
-        <v>5000000</v>
+        <v>15500000000</v>
       </c>
       <c r="K35">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -4906,28 +5092,28 @@
         <v>3</v>
       </c>
       <c r="U35">
-        <v>900</v>
+        <v>5000</v>
       </c>
       <c r="V35">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="W35">
-        <v>300000</v>
+        <v>7750000000</v>
       </c>
       <c r="X35">
         <v>2000</v>
       </c>
       <c r="Y35" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="Z35" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="AA35">
-        <v>5000000</v>
+        <v>15500000000</v>
       </c>
       <c r="AB35">
-        <v>5000000</v>
+        <v>15500000000</v>
       </c>
       <c r="AC35">
         <v>1</v>
@@ -4948,25 +5134,37 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AM35" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="AN35">
         <v>0.01</v>
       </c>
       <c r="AO35" t="s">
-        <v>98</v>
+        <v>107</v>
+      </c>
+      <c r="AQ35">
+        <v>0.275</v>
+      </c>
+      <c r="AR35">
+        <v>0.275</v>
+      </c>
+      <c r="AS35">
+        <v>0.55</v>
+      </c>
+      <c r="AW35">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/Monsters/celestials.xlsx
+++ b/resources/data-imports/Monsters/celestials.xlsx
@@ -170,7 +170,7 @@
     <t>King of the Duegar</t>
   </si>
   <si>
-    <t>25000000-50000000</t>
+    <t>25000-50000</t>
   </si>
   <si>
     <t>Surface</t>
@@ -179,7 +179,7 @@
     <t>Celestial Treasure Goblin</t>
   </si>
   <si>
-    <t>32292709-64585418</t>
+    <t>34738-69475</t>
   </si>
   <si>
     <t>Judges Helm</t>
@@ -188,37 +188,37 @@
     <t>Faceless Shadow</t>
   </si>
   <si>
-    <t>41712762-83425523</t>
+    <t>48268-96535</t>
   </si>
   <si>
     <t>Sinister Liar</t>
   </si>
   <si>
-    <t>53880722-107761443</t>
+    <t>67068-134135</t>
   </si>
   <si>
     <t>Corrupted Plane Walker</t>
   </si>
   <si>
-    <t>72481526-144963051</t>
+    <t>97051-194102</t>
   </si>
   <si>
     <t>Shadow of the Depths</t>
   </si>
   <si>
-    <t>94579966-189159931</t>
+    <t>136227-272454</t>
   </si>
   <si>
     <t>Angelic Soldier</t>
   </si>
   <si>
-    <t>123415862-246831724</t>
+    <t>191218-382435</t>
   </si>
   <si>
     <t>Red Raging Treasure Mage</t>
   </si>
   <si>
-    <t>150000000-300000000</t>
+    <t>250000-500000</t>
   </si>
   <si>
     <t>Githzerai Monk of Labyrinth</t>
@@ -230,37 +230,37 @@
     <t>Death Eater</t>
   </si>
   <si>
-    <t>29905780-59811560</t>
+    <t>31474-62947</t>
   </si>
   <si>
     <t>Hell Dragon of Kazard</t>
   </si>
   <si>
-    <t>35774228-71548455</t>
+    <t>39623-79245</t>
   </si>
   <si>
     <t>Godless Wizard</t>
   </si>
   <si>
-    <t>42794247-85588493</t>
+    <t>49882-99764</t>
   </si>
   <si>
     <t>Labyrinth Hellraiser</t>
   </si>
   <si>
-    <t>51191813-102383626</t>
+    <t>62798-125595</t>
   </si>
   <si>
     <t>Fanatic of Tlessa</t>
   </si>
   <si>
-    <t>61237244-122474488</t>
+    <t>79057-158114</t>
   </si>
   <si>
     <t>Witch's Pet</t>
   </si>
   <si>
-    <t>77852927-155705854</t>
+    <t>105776-211551</t>
   </si>
   <si>
     <t>River Styx Sandals</t>
@@ -269,19 +269,19 @@
     <t>Minotaur God</t>
   </si>
   <si>
-    <t>94080027-188160054</t>
+    <t>134522-269043</t>
   </si>
   <si>
     <t>Winged Baby Doll</t>
   </si>
   <si>
-    <t>113689387-227378773</t>
+    <t>171080-342160</t>
   </si>
   <si>
     <t>Labyrinth Alchemizer</t>
   </si>
   <si>
-    <t>137385979-274771958</t>
+    <t>217574-435148</t>
   </si>
   <si>
     <t>Trained Angelic Swordsmen</t>
@@ -302,13 +302,13 @@
     <t>Hell God</t>
   </si>
   <si>
-    <t>75518413-151036825</t>
+    <t>102604-205207</t>
   </si>
   <si>
     <t>Archangel Kalix</t>
   </si>
   <si>
-    <t>109166772-218333543</t>
+    <t>164275-328549</t>
   </si>
   <si>
     <t>The Child</t>
@@ -335,7 +335,7 @@
     <t>Faceless Representation of The Church</t>
   </si>
   <si>
-    <t>2500000000-5000000000</t>
+    <t>4000000-8000000</t>
   </si>
   <si>
     <t>Delusional Memories</t>
@@ -344,19 +344,19 @@
     <t>Federation Soldier of Corrupted Hate</t>
   </si>
   <si>
-    <t>3134818113-6269636226</t>
+    <t>4804498-9608996</t>
   </si>
   <si>
     <t>Jesters tolerated hate</t>
   </si>
   <si>
-    <t>3930833841-7861667681</t>
+    <t>5770800-11541600</t>
   </si>
   <si>
     <t>Celstial Hand of Time</t>
   </si>
   <si>
-    <t>5081350090-10162700179</t>
+    <t>7145722-14291444</t>
   </si>
   <si>
     <t>Roseary of yesteryear</t>
@@ -365,13 +365,13 @@
     <t>Child of Bones</t>
   </si>
   <si>
-    <t>6436634082-12873268163</t>
+    <t>8670447-17340893</t>
   </si>
   <si>
     <t>Puppet Master</t>
   </si>
   <si>
-    <t>7750000000-15500000000</t>
+    <t>10000000-20000000</t>
   </si>
   <si>
     <t>Holy Dirt</t>
@@ -724,14 +724,14 @@
   <cols>
     <col min="1" max="1" width="4.57" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="44.703" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="8.141" bestFit="true" customWidth="true" style="0"/>
@@ -744,10 +744,10 @@
     <col min="20" max="20" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="5.856" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="26.993" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="26.993" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="28" max="28" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="29" max="29" width="22.28" bestFit="true" customWidth="true" style="0"/>
@@ -934,28 +934,28 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="D2">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="E2">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="F2">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="G2">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="H2">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="I2">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="J2">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="K2">
         <v>0.001</v>
@@ -988,7 +988,7 @@
         <v>0.001</v>
       </c>
       <c r="W2">
-        <v>25000000</v>
+        <v>25000</v>
       </c>
       <c r="X2">
         <v>5000</v>
@@ -1000,10 +1000,10 @@
         <v>51</v>
       </c>
       <c r="AA2">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="AB2">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="AC2">
         <v>0.001</v>
@@ -1053,28 +1053,28 @@
         <v>53</v>
       </c>
       <c r="C3">
-        <v>64585418</v>
+        <v>69475</v>
       </c>
       <c r="D3">
-        <v>64585418</v>
+        <v>69475</v>
       </c>
       <c r="E3">
-        <v>64585418</v>
+        <v>69475</v>
       </c>
       <c r="F3">
-        <v>64585418</v>
+        <v>69475</v>
       </c>
       <c r="G3">
-        <v>64585418</v>
+        <v>69475</v>
       </c>
       <c r="H3">
-        <v>64585418</v>
+        <v>69475</v>
       </c>
       <c r="I3">
-        <v>64585418</v>
+        <v>69475</v>
       </c>
       <c r="J3">
-        <v>64585418</v>
+        <v>69475</v>
       </c>
       <c r="K3">
         <v>0.0027</v>
@@ -1113,7 +1113,7 @@
         <v>0.0027</v>
       </c>
       <c r="W3">
-        <v>32292709</v>
+        <v>34738</v>
       </c>
       <c r="X3">
         <v>500</v>
@@ -1125,10 +1125,10 @@
         <v>54</v>
       </c>
       <c r="AA3">
-        <v>64585418</v>
+        <v>69475</v>
       </c>
       <c r="AB3">
-        <v>64585418</v>
+        <v>69475</v>
       </c>
       <c r="AC3">
         <v>0.0027</v>
@@ -1181,28 +1181,28 @@
         <v>56</v>
       </c>
       <c r="C4">
-        <v>83425523</v>
+        <v>96535</v>
       </c>
       <c r="D4">
-        <v>83425523</v>
+        <v>96535</v>
       </c>
       <c r="E4">
-        <v>83425523</v>
+        <v>96535</v>
       </c>
       <c r="F4">
-        <v>83425523</v>
+        <v>96535</v>
       </c>
       <c r="G4">
-        <v>83425523</v>
+        <v>96535</v>
       </c>
       <c r="H4">
-        <v>83425523</v>
+        <v>96535</v>
       </c>
       <c r="I4">
-        <v>83425523</v>
+        <v>96535</v>
       </c>
       <c r="J4">
-        <v>83425523</v>
+        <v>96535</v>
       </c>
       <c r="K4">
         <v>0.0072</v>
@@ -1241,7 +1241,7 @@
         <v>0.0072</v>
       </c>
       <c r="W4">
-        <v>41712762</v>
+        <v>48268</v>
       </c>
       <c r="X4">
         <v>600</v>
@@ -1253,10 +1253,10 @@
         <v>57</v>
       </c>
       <c r="AA4">
-        <v>83425523</v>
+        <v>96535</v>
       </c>
       <c r="AB4">
-        <v>83425523</v>
+        <v>96535</v>
       </c>
       <c r="AC4">
         <v>0.0072</v>
@@ -1306,28 +1306,28 @@
         <v>58</v>
       </c>
       <c r="C5">
-        <v>107761443</v>
+        <v>134135</v>
       </c>
       <c r="D5">
-        <v>107761443</v>
+        <v>134135</v>
       </c>
       <c r="E5">
-        <v>107761443</v>
+        <v>134135</v>
       </c>
       <c r="F5">
-        <v>107761443</v>
+        <v>134135</v>
       </c>
       <c r="G5">
-        <v>107761443</v>
+        <v>134135</v>
       </c>
       <c r="H5">
-        <v>107761443</v>
+        <v>134135</v>
       </c>
       <c r="I5">
-        <v>107761443</v>
+        <v>134135</v>
       </c>
       <c r="J5">
-        <v>107761443</v>
+        <v>134135</v>
       </c>
       <c r="K5">
         <v>0.0193</v>
@@ -1366,7 +1366,7 @@
         <v>0.0193</v>
       </c>
       <c r="W5">
-        <v>53880722</v>
+        <v>67068</v>
       </c>
       <c r="X5">
         <v>800</v>
@@ -1378,10 +1378,10 @@
         <v>59</v>
       </c>
       <c r="AA5">
-        <v>107761443</v>
+        <v>134135</v>
       </c>
       <c r="AB5">
-        <v>107761443</v>
+        <v>134135</v>
       </c>
       <c r="AC5">
         <v>0.0193</v>
@@ -1431,28 +1431,28 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>144963051</v>
+        <v>194102</v>
       </c>
       <c r="D6">
-        <v>144963051</v>
+        <v>194102</v>
       </c>
       <c r="E6">
-        <v>144963051</v>
+        <v>194102</v>
       </c>
       <c r="F6">
-        <v>144963051</v>
+        <v>194102</v>
       </c>
       <c r="G6">
-        <v>144963051</v>
+        <v>194102</v>
       </c>
       <c r="H6">
-        <v>144963051</v>
+        <v>194102</v>
       </c>
       <c r="I6">
-        <v>144963051</v>
+        <v>194102</v>
       </c>
       <c r="J6">
-        <v>144963051</v>
+        <v>194102</v>
       </c>
       <c r="K6">
         <v>0.0539</v>
@@ -1491,7 +1491,7 @@
         <v>0.0539</v>
       </c>
       <c r="W6">
-        <v>72481526</v>
+        <v>97051</v>
       </c>
       <c r="X6">
         <v>900</v>
@@ -1503,10 +1503,10 @@
         <v>61</v>
       </c>
       <c r="AA6">
-        <v>144963051</v>
+        <v>194102</v>
       </c>
       <c r="AB6">
-        <v>144963051</v>
+        <v>194102</v>
       </c>
       <c r="AC6">
         <v>0.0539</v>
@@ -1553,28 +1553,28 @@
         <v>62</v>
       </c>
       <c r="C7">
-        <v>189159931</v>
+        <v>272454</v>
       </c>
       <c r="D7">
-        <v>189159931</v>
+        <v>272454</v>
       </c>
       <c r="E7">
-        <v>189159931</v>
+        <v>272454</v>
       </c>
       <c r="F7">
-        <v>189159931</v>
+        <v>272454</v>
       </c>
       <c r="G7">
-        <v>189159931</v>
+        <v>272454</v>
       </c>
       <c r="H7">
-        <v>189159931</v>
+        <v>272454</v>
       </c>
       <c r="I7">
-        <v>189159931</v>
+        <v>272454</v>
       </c>
       <c r="J7">
-        <v>189159931</v>
+        <v>272454</v>
       </c>
       <c r="K7">
         <v>0.1462</v>
@@ -1613,7 +1613,7 @@
         <v>0.1462</v>
       </c>
       <c r="W7">
-        <v>94579966</v>
+        <v>136227</v>
       </c>
       <c r="X7">
         <v>1000</v>
@@ -1625,10 +1625,10 @@
         <v>63</v>
       </c>
       <c r="AA7">
-        <v>189159931</v>
+        <v>272454</v>
       </c>
       <c r="AB7">
-        <v>189159931</v>
+        <v>272454</v>
       </c>
       <c r="AC7">
         <v>0.1462</v>
@@ -1675,28 +1675,28 @@
         <v>64</v>
       </c>
       <c r="C8">
-        <v>246831724</v>
+        <v>382435</v>
       </c>
       <c r="D8">
-        <v>246831724</v>
+        <v>382435</v>
       </c>
       <c r="E8">
-        <v>246831724</v>
+        <v>382435</v>
       </c>
       <c r="F8">
-        <v>246831724</v>
+        <v>382435</v>
       </c>
       <c r="G8">
-        <v>246831724</v>
+        <v>382435</v>
       </c>
       <c r="H8">
-        <v>246831724</v>
+        <v>382435</v>
       </c>
       <c r="I8">
-        <v>246831724</v>
+        <v>382435</v>
       </c>
       <c r="J8">
-        <v>246831724</v>
+        <v>382435</v>
       </c>
       <c r="K8">
         <v>0.3962</v>
@@ -1735,7 +1735,7 @@
         <v>0.3962</v>
       </c>
       <c r="W8">
-        <v>123415862</v>
+        <v>191218</v>
       </c>
       <c r="X8">
         <v>1100</v>
@@ -1747,10 +1747,10 @@
         <v>65</v>
       </c>
       <c r="AA8">
-        <v>246831724</v>
+        <v>382435</v>
       </c>
       <c r="AB8">
-        <v>246831724</v>
+        <v>382435</v>
       </c>
       <c r="AC8">
         <v>0.3962</v>
@@ -1797,28 +1797,28 @@
         <v>66</v>
       </c>
       <c r="C9">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="D9">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="E9">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="F9">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="G9">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="H9">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="I9">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="J9">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>150000000</v>
+        <v>250000</v>
       </c>
       <c r="X9">
         <v>1400</v>
@@ -1869,10 +1869,10 @@
         <v>67</v>
       </c>
       <c r="AA9">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="AB9">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="AC9">
         <v>1</v>
@@ -1919,28 +1919,28 @@
         <v>68</v>
       </c>
       <c r="C10">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="D10">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="E10">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="F10">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="G10">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="H10">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="I10">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="J10">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="K10">
         <v>0.001</v>
@@ -1973,7 +1973,7 @@
         <v>0.001</v>
       </c>
       <c r="W10">
-        <v>25000000</v>
+        <v>25000</v>
       </c>
       <c r="X10">
         <v>5000</v>
@@ -1985,10 +1985,10 @@
         <v>51</v>
       </c>
       <c r="AA10">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="AB10">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="AC10">
         <v>0.001</v>
@@ -2041,28 +2041,28 @@
         <v>70</v>
       </c>
       <c r="C11">
-        <v>59811560</v>
+        <v>62947</v>
       </c>
       <c r="D11">
-        <v>59811560</v>
+        <v>62947</v>
       </c>
       <c r="E11">
-        <v>59811560</v>
+        <v>62947</v>
       </c>
       <c r="F11">
-        <v>59811560</v>
+        <v>62947</v>
       </c>
       <c r="G11">
-        <v>59811560</v>
+        <v>62947</v>
       </c>
       <c r="H11">
-        <v>59811560</v>
+        <v>62947</v>
       </c>
       <c r="I11">
-        <v>59811560</v>
+        <v>62947</v>
       </c>
       <c r="J11">
-        <v>59811560</v>
+        <v>62947</v>
       </c>
       <c r="K11">
         <v>0.002</v>
@@ -2101,7 +2101,7 @@
         <v>0.002</v>
       </c>
       <c r="W11">
-        <v>29905780</v>
+        <v>31474</v>
       </c>
       <c r="X11">
         <v>500</v>
@@ -2113,10 +2113,10 @@
         <v>71</v>
       </c>
       <c r="AA11">
-        <v>59811560</v>
+        <v>62947</v>
       </c>
       <c r="AB11">
-        <v>59811560</v>
+        <v>62947</v>
       </c>
       <c r="AC11">
         <v>0.002</v>
@@ -2163,28 +2163,28 @@
         <v>72</v>
       </c>
       <c r="C12">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="D12">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="E12">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="F12">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="G12">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="H12">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="I12">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="J12">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="K12">
         <v>0.004</v>
@@ -2223,7 +2223,7 @@
         <v>0.004</v>
       </c>
       <c r="W12">
-        <v>35774228</v>
+        <v>39623</v>
       </c>
       <c r="X12">
         <v>500</v>
@@ -2235,10 +2235,10 @@
         <v>73</v>
       </c>
       <c r="AA12">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="AB12">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="AC12">
         <v>0.004</v>
@@ -2285,28 +2285,28 @@
         <v>74</v>
       </c>
       <c r="C13">
-        <v>85588493</v>
+        <v>99764</v>
       </c>
       <c r="D13">
-        <v>85588493</v>
+        <v>99764</v>
       </c>
       <c r="E13">
-        <v>85588493</v>
+        <v>99764</v>
       </c>
       <c r="F13">
-        <v>85588493</v>
+        <v>99764</v>
       </c>
       <c r="G13">
-        <v>85588493</v>
+        <v>99764</v>
       </c>
       <c r="H13">
-        <v>85588493</v>
+        <v>99764</v>
       </c>
       <c r="I13">
-        <v>85588493</v>
+        <v>99764</v>
       </c>
       <c r="J13">
-        <v>85588493</v>
+        <v>99764</v>
       </c>
       <c r="K13">
         <v>0.0079</v>
@@ -2345,7 +2345,7 @@
         <v>0.0079</v>
       </c>
       <c r="W13">
-        <v>42794247</v>
+        <v>49882</v>
       </c>
       <c r="X13">
         <v>600</v>
@@ -2357,10 +2357,10 @@
         <v>75</v>
       </c>
       <c r="AA13">
-        <v>85588493</v>
+        <v>99764</v>
       </c>
       <c r="AB13">
-        <v>85588493</v>
+        <v>99764</v>
       </c>
       <c r="AC13">
         <v>0.0079</v>
@@ -2407,28 +2407,28 @@
         <v>76</v>
       </c>
       <c r="C14">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="D14">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="E14">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="F14">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="G14">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="H14">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="I14">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="J14">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="K14">
         <v>0.0158</v>
@@ -2467,7 +2467,7 @@
         <v>0.0158</v>
       </c>
       <c r="W14">
-        <v>51191813</v>
+        <v>62798</v>
       </c>
       <c r="X14">
         <v>600</v>
@@ -2479,10 +2479,10 @@
         <v>77</v>
       </c>
       <c r="AA14">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="AB14">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="AC14">
         <v>0.0158</v>
@@ -2529,28 +2529,28 @@
         <v>78</v>
       </c>
       <c r="C15">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="D15">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="E15">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="F15">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="G15">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="H15">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="I15">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="J15">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="K15">
         <v>0.0316</v>
@@ -2589,7 +2589,7 @@
         <v>0.0316</v>
       </c>
       <c r="W15">
-        <v>61237244</v>
+        <v>79057</v>
       </c>
       <c r="X15">
         <v>800</v>
@@ -2601,10 +2601,10 @@
         <v>79</v>
       </c>
       <c r="AA15">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="AB15">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="AC15">
         <v>0.0316</v>
@@ -2651,28 +2651,28 @@
         <v>80</v>
       </c>
       <c r="C16">
-        <v>155705854</v>
+        <v>211551</v>
       </c>
       <c r="D16">
-        <v>155705854</v>
+        <v>211551</v>
       </c>
       <c r="E16">
-        <v>155705854</v>
+        <v>211551</v>
       </c>
       <c r="F16">
-        <v>155705854</v>
+        <v>211551</v>
       </c>
       <c r="G16">
-        <v>155705854</v>
+        <v>211551</v>
       </c>
       <c r="H16">
-        <v>155705854</v>
+        <v>211551</v>
       </c>
       <c r="I16">
-        <v>155705854</v>
+        <v>211551</v>
       </c>
       <c r="J16">
-        <v>155705854</v>
+        <v>211551</v>
       </c>
       <c r="K16">
         <v>0.0671</v>
@@ -2711,7 +2711,7 @@
         <v>0.0671</v>
       </c>
       <c r="W16">
-        <v>77852927</v>
+        <v>105776</v>
       </c>
       <c r="X16">
         <v>800</v>
@@ -2723,10 +2723,10 @@
         <v>81</v>
       </c>
       <c r="AA16">
-        <v>155705854</v>
+        <v>211551</v>
       </c>
       <c r="AB16">
-        <v>155705854</v>
+        <v>211551</v>
       </c>
       <c r="AC16">
         <v>0.0671</v>
@@ -2779,28 +2779,28 @@
         <v>83</v>
       </c>
       <c r="C17">
-        <v>188160054</v>
+        <v>269043</v>
       </c>
       <c r="D17">
-        <v>188160054</v>
+        <v>269043</v>
       </c>
       <c r="E17">
-        <v>188160054</v>
+        <v>269043</v>
       </c>
       <c r="F17">
-        <v>188160054</v>
+        <v>269043</v>
       </c>
       <c r="G17">
-        <v>188160054</v>
+        <v>269043</v>
       </c>
       <c r="H17">
-        <v>188160054</v>
+        <v>269043</v>
       </c>
       <c r="I17">
-        <v>188160054</v>
+        <v>269043</v>
       </c>
       <c r="J17">
-        <v>188160054</v>
+        <v>269043</v>
       </c>
       <c r="K17">
         <v>0.1352</v>
@@ -2839,7 +2839,7 @@
         <v>0.1352</v>
       </c>
       <c r="W17">
-        <v>94080027</v>
+        <v>134522</v>
       </c>
       <c r="X17">
         <v>900</v>
@@ -2851,10 +2851,10 @@
         <v>84</v>
       </c>
       <c r="AA17">
-        <v>188160054</v>
+        <v>269043</v>
       </c>
       <c r="AB17">
-        <v>188160054</v>
+        <v>269043</v>
       </c>
       <c r="AC17">
         <v>0.1352</v>
@@ -2901,28 +2901,28 @@
         <v>85</v>
       </c>
       <c r="C18">
-        <v>227378773</v>
+        <v>342160</v>
       </c>
       <c r="D18">
-        <v>227378773</v>
+        <v>342160</v>
       </c>
       <c r="E18">
-        <v>227378773</v>
+        <v>342160</v>
       </c>
       <c r="F18">
-        <v>227378773</v>
+        <v>342160</v>
       </c>
       <c r="G18">
-        <v>227378773</v>
+        <v>342160</v>
       </c>
       <c r="H18">
-        <v>227378773</v>
+        <v>342160</v>
       </c>
       <c r="I18">
-        <v>227378773</v>
+        <v>342160</v>
       </c>
       <c r="J18">
-        <v>227378773</v>
+        <v>342160</v>
       </c>
       <c r="K18">
         <v>0.2724</v>
@@ -2961,7 +2961,7 @@
         <v>0.2724</v>
       </c>
       <c r="W18">
-        <v>113689387</v>
+        <v>171080</v>
       </c>
       <c r="X18">
         <v>1000</v>
@@ -2973,10 +2973,10 @@
         <v>86</v>
       </c>
       <c r="AA18">
-        <v>227378773</v>
+        <v>342160</v>
       </c>
       <c r="AB18">
-        <v>227378773</v>
+        <v>342160</v>
       </c>
       <c r="AC18">
         <v>0.2724</v>
@@ -3023,28 +3023,28 @@
         <v>87</v>
       </c>
       <c r="C19">
-        <v>274771958</v>
+        <v>435148</v>
       </c>
       <c r="D19">
-        <v>274771958</v>
+        <v>435148</v>
       </c>
       <c r="E19">
-        <v>274771958</v>
+        <v>435148</v>
       </c>
       <c r="F19">
-        <v>274771958</v>
+        <v>435148</v>
       </c>
       <c r="G19">
-        <v>274771958</v>
+        <v>435148</v>
       </c>
       <c r="H19">
-        <v>274771958</v>
+        <v>435148</v>
       </c>
       <c r="I19">
-        <v>274771958</v>
+        <v>435148</v>
       </c>
       <c r="J19">
-        <v>274771958</v>
+        <v>435148</v>
       </c>
       <c r="K19">
         <v>0.5491</v>
@@ -3083,7 +3083,7 @@
         <v>0.5491</v>
       </c>
       <c r="W19">
-        <v>137385979</v>
+        <v>217574</v>
       </c>
       <c r="X19">
         <v>1100</v>
@@ -3095,10 +3095,10 @@
         <v>88</v>
       </c>
       <c r="AA19">
-        <v>274771958</v>
+        <v>435148</v>
       </c>
       <c r="AB19">
-        <v>274771958</v>
+        <v>435148</v>
       </c>
       <c r="AC19">
         <v>0.5491</v>
@@ -3145,28 +3145,28 @@
         <v>89</v>
       </c>
       <c r="C20">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="D20">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="E20">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="F20">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="G20">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="H20">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="I20">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="J20">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -3205,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="W20">
-        <v>150000000</v>
+        <v>250000</v>
       </c>
       <c r="X20">
         <v>1400</v>
@@ -3217,10 +3217,10 @@
         <v>67</v>
       </c>
       <c r="AA20">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="AB20">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="AC20">
         <v>1</v>
@@ -3267,28 +3267,28 @@
         <v>90</v>
       </c>
       <c r="C21">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="D21">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="E21">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="F21">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="G21">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="H21">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="I21">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="J21">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="K21">
         <v>0.001</v>
@@ -3321,7 +3321,7 @@
         <v>0.001</v>
       </c>
       <c r="W21">
-        <v>25000000</v>
+        <v>25000</v>
       </c>
       <c r="X21">
         <v>5000</v>
@@ -3333,10 +3333,10 @@
         <v>51</v>
       </c>
       <c r="AA21">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="AB21">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="AC21">
         <v>0.001</v>
@@ -3389,28 +3389,28 @@
         <v>92</v>
       </c>
       <c r="C22">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="D22">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="E22">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="F22">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="G22">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="H22">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="I22">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="J22">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="K22">
         <v>0.004</v>
@@ -3449,7 +3449,7 @@
         <v>0.004</v>
       </c>
       <c r="W22">
-        <v>35774228</v>
+        <v>39623</v>
       </c>
       <c r="X22">
         <v>900</v>
@@ -3461,10 +3461,10 @@
         <v>73</v>
       </c>
       <c r="AA22">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="AB22">
-        <v>71548455</v>
+        <v>79245</v>
       </c>
       <c r="AC22">
         <v>0.004</v>
@@ -3511,28 +3511,28 @@
         <v>93</v>
       </c>
       <c r="C23">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="D23">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="E23">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="F23">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="G23">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="H23">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="I23">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="J23">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="K23">
         <v>0.0158</v>
@@ -3571,7 +3571,7 @@
         <v>0.0158</v>
       </c>
       <c r="W23">
-        <v>51191813</v>
+        <v>62798</v>
       </c>
       <c r="X23">
         <v>1000</v>
@@ -3583,10 +3583,10 @@
         <v>77</v>
       </c>
       <c r="AA23">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="AB23">
-        <v>102383626</v>
+        <v>125595</v>
       </c>
       <c r="AC23">
         <v>0.0158</v>
@@ -3633,28 +3633,28 @@
         <v>94</v>
       </c>
       <c r="C24">
-        <v>151036825</v>
+        <v>205207</v>
       </c>
       <c r="D24">
-        <v>151036825</v>
+        <v>205207</v>
       </c>
       <c r="E24">
-        <v>151036825</v>
+        <v>205207</v>
       </c>
       <c r="F24">
-        <v>151036825</v>
+        <v>205207</v>
       </c>
       <c r="G24">
-        <v>151036825</v>
+        <v>205207</v>
       </c>
       <c r="H24">
-        <v>151036825</v>
+        <v>205207</v>
       </c>
       <c r="I24">
-        <v>151036825</v>
+        <v>205207</v>
       </c>
       <c r="J24">
-        <v>151036825</v>
+        <v>205207</v>
       </c>
       <c r="K24">
         <v>0.065</v>
@@ -3693,7 +3693,7 @@
         <v>0.065</v>
       </c>
       <c r="W24">
-        <v>75518413</v>
+        <v>102604</v>
       </c>
       <c r="X24">
         <v>1100</v>
@@ -3705,10 +3705,10 @@
         <v>95</v>
       </c>
       <c r="AA24">
-        <v>151036825</v>
+        <v>205207</v>
       </c>
       <c r="AB24">
-        <v>151036825</v>
+        <v>205207</v>
       </c>
       <c r="AC24">
         <v>0.065</v>
@@ -3755,28 +3755,28 @@
         <v>96</v>
       </c>
       <c r="C25">
-        <v>218333543</v>
+        <v>328549</v>
       </c>
       <c r="D25">
-        <v>218333543</v>
+        <v>328549</v>
       </c>
       <c r="E25">
-        <v>218333543</v>
+        <v>328549</v>
       </c>
       <c r="F25">
-        <v>218333543</v>
+        <v>328549</v>
       </c>
       <c r="G25">
-        <v>218333543</v>
+        <v>328549</v>
       </c>
       <c r="H25">
-        <v>218333543</v>
+        <v>328549</v>
       </c>
       <c r="I25">
-        <v>218333543</v>
+        <v>328549</v>
       </c>
       <c r="J25">
-        <v>218333543</v>
+        <v>328549</v>
       </c>
       <c r="K25">
         <v>0.2616</v>
@@ -3815,7 +3815,7 @@
         <v>0.2616</v>
       </c>
       <c r="W25">
-        <v>109166772</v>
+        <v>164275</v>
       </c>
       <c r="X25">
         <v>1400</v>
@@ -3827,10 +3827,10 @@
         <v>97</v>
       </c>
       <c r="AA25">
-        <v>218333543</v>
+        <v>328549</v>
       </c>
       <c r="AB25">
-        <v>218333543</v>
+        <v>328549</v>
       </c>
       <c r="AC25">
         <v>0.2616</v>
@@ -3877,28 +3877,28 @@
         <v>98</v>
       </c>
       <c r="C26">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="D26">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="E26">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="F26">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="G26">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="H26">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="I26">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="J26">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3937,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="W26">
-        <v>150000000</v>
+        <v>250000</v>
       </c>
       <c r="X26">
         <v>2000</v>
@@ -3949,10 +3949,10 @@
         <v>67</v>
       </c>
       <c r="AA26">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="AB26">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="AC26">
         <v>1</v>
@@ -3999,28 +3999,28 @@
         <v>99</v>
       </c>
       <c r="C27">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="D27">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="E27">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="F27">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="G27">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="H27">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="I27">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="J27">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="K27">
         <v>0.001</v>
@@ -4053,7 +4053,7 @@
         <v>0.001</v>
       </c>
       <c r="W27">
-        <v>25000000</v>
+        <v>25000</v>
       </c>
       <c r="X27">
         <v>5000</v>
@@ -4065,10 +4065,10 @@
         <v>51</v>
       </c>
       <c r="AA27">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="AB27">
-        <v>50000000</v>
+        <v>50000</v>
       </c>
       <c r="AC27">
         <v>0.001</v>
@@ -4121,28 +4121,28 @@
         <v>101</v>
       </c>
       <c r="C28">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="D28">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="E28">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="F28">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="G28">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="H28">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="I28">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="J28">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="K28">
         <v>0.0316</v>
@@ -4181,7 +4181,7 @@
         <v>0.0316</v>
       </c>
       <c r="W28">
-        <v>61237244</v>
+        <v>79057</v>
       </c>
       <c r="X28">
         <v>600</v>
@@ -4193,10 +4193,10 @@
         <v>79</v>
       </c>
       <c r="AA28">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="AB28">
-        <v>122474488</v>
+        <v>158114</v>
       </c>
       <c r="AC28">
         <v>0.0316</v>
@@ -4249,28 +4249,28 @@
         <v>103</v>
       </c>
       <c r="C29">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="D29">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="E29">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="F29">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="G29">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="H29">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="I29">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="J29">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -4309,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>150000000</v>
+        <v>250000</v>
       </c>
       <c r="X29">
         <v>800</v>
@@ -4321,10 +4321,10 @@
         <v>67</v>
       </c>
       <c r="AA29">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="AB29">
-        <v>300000000</v>
+        <v>500000</v>
       </c>
       <c r="AC29">
         <v>1</v>
@@ -4377,28 +4377,28 @@
         <v>105</v>
       </c>
       <c r="C30">
-        <v>5000000000</v>
+        <v>8000000</v>
       </c>
       <c r="D30">
-        <v>5000000000</v>
+        <v>8000000</v>
       </c>
       <c r="E30">
-        <v>5000000000</v>
+        <v>8000000</v>
       </c>
       <c r="F30">
-        <v>5000000000</v>
+        <v>8000000</v>
       </c>
       <c r="G30">
-        <v>5000000000</v>
+        <v>8000000</v>
       </c>
       <c r="H30">
-        <v>5000000000</v>
+        <v>8000000</v>
       </c>
       <c r="I30">
-        <v>5000000000</v>
+        <v>8000000</v>
       </c>
       <c r="J30">
-        <v>5000000000</v>
+        <v>8000000</v>
       </c>
       <c r="K30">
         <v>0.001</v>
@@ -4431,7 +4431,7 @@
         <v>0.001</v>
       </c>
       <c r="W30">
-        <v>2500000000</v>
+        <v>4000000</v>
       </c>
       <c r="X30">
         <v>5000</v>
@@ -4443,10 +4443,10 @@
         <v>106</v>
       </c>
       <c r="AA30">
-        <v>5000000000</v>
+        <v>8000000</v>
       </c>
       <c r="AB30">
-        <v>5000000000</v>
+        <v>8000000</v>
       </c>
       <c r="AC30">
         <v>0.001</v>
@@ -4508,28 +4508,28 @@
         <v>108</v>
       </c>
       <c r="C31">
-        <v>6269636226</v>
+        <v>9608996</v>
       </c>
       <c r="D31">
-        <v>6269636226</v>
+        <v>9608996</v>
       </c>
       <c r="E31">
-        <v>6269636226</v>
+        <v>9608996</v>
       </c>
       <c r="F31">
-        <v>6269636226</v>
+        <v>9608996</v>
       </c>
       <c r="G31">
-        <v>6269636226</v>
+        <v>9608996</v>
       </c>
       <c r="H31">
-        <v>6269636226</v>
+        <v>9608996</v>
       </c>
       <c r="I31">
-        <v>6269636226</v>
+        <v>9608996</v>
       </c>
       <c r="J31">
-        <v>6269636226</v>
+        <v>9608996</v>
       </c>
       <c r="K31">
         <v>0.004</v>
@@ -4568,7 +4568,7 @@
         <v>0.004</v>
       </c>
       <c r="W31">
-        <v>3134818113</v>
+        <v>4804498</v>
       </c>
       <c r="X31">
         <v>900</v>
@@ -4580,10 +4580,10 @@
         <v>109</v>
       </c>
       <c r="AA31">
-        <v>6269636226</v>
+        <v>9608996</v>
       </c>
       <c r="AB31">
-        <v>6269636226</v>
+        <v>9608996</v>
       </c>
       <c r="AC31">
         <v>0.004</v>
@@ -4639,28 +4639,28 @@
         <v>110</v>
       </c>
       <c r="C32">
-        <v>7861667681</v>
+        <v>11541600</v>
       </c>
       <c r="D32">
-        <v>7861667681</v>
+        <v>11541600</v>
       </c>
       <c r="E32">
-        <v>7861667681</v>
+        <v>11541600</v>
       </c>
       <c r="F32">
-        <v>7861667681</v>
+        <v>11541600</v>
       </c>
       <c r="G32">
-        <v>7861667681</v>
+        <v>11541600</v>
       </c>
       <c r="H32">
-        <v>7861667681</v>
+        <v>11541600</v>
       </c>
       <c r="I32">
-        <v>7861667681</v>
+        <v>11541600</v>
       </c>
       <c r="J32">
-        <v>7861667681</v>
+        <v>11541600</v>
       </c>
       <c r="K32">
         <v>0.0158</v>
@@ -4699,7 +4699,7 @@
         <v>0.0158</v>
       </c>
       <c r="W32">
-        <v>3930833841</v>
+        <v>5770800</v>
       </c>
       <c r="X32">
         <v>1000</v>
@@ -4711,10 +4711,10 @@
         <v>111</v>
       </c>
       <c r="AA32">
-        <v>7861667681</v>
+        <v>11541600</v>
       </c>
       <c r="AB32">
-        <v>7861667681</v>
+        <v>11541600</v>
       </c>
       <c r="AC32">
         <v>0.0158</v>
@@ -4770,28 +4770,28 @@
         <v>112</v>
       </c>
       <c r="C33">
-        <v>10162700179</v>
+        <v>14291444</v>
       </c>
       <c r="D33">
-        <v>10162700179</v>
+        <v>14291444</v>
       </c>
       <c r="E33">
-        <v>10162700179</v>
+        <v>14291444</v>
       </c>
       <c r="F33">
-        <v>10162700179</v>
+        <v>14291444</v>
       </c>
       <c r="G33">
-        <v>10162700179</v>
+        <v>14291444</v>
       </c>
       <c r="H33">
-        <v>10162700179</v>
+        <v>14291444</v>
       </c>
       <c r="I33">
-        <v>10162700179</v>
+        <v>14291444</v>
       </c>
       <c r="J33">
-        <v>10162700179</v>
+        <v>14291444</v>
       </c>
       <c r="K33">
         <v>0.065</v>
@@ -4830,7 +4830,7 @@
         <v>0.065</v>
       </c>
       <c r="W33">
-        <v>5081350090</v>
+        <v>7145722</v>
       </c>
       <c r="X33">
         <v>1100</v>
@@ -4842,10 +4842,10 @@
         <v>113</v>
       </c>
       <c r="AA33">
-        <v>10162700179</v>
+        <v>14291444</v>
       </c>
       <c r="AB33">
-        <v>10162700179</v>
+        <v>14291444</v>
       </c>
       <c r="AC33">
         <v>0.065</v>
@@ -4907,28 +4907,28 @@
         <v>115</v>
       </c>
       <c r="C34">
-        <v>12873268163</v>
+        <v>17340893</v>
       </c>
       <c r="D34">
-        <v>12873268163</v>
+        <v>17340893</v>
       </c>
       <c r="E34">
-        <v>12873268163</v>
+        <v>17340893</v>
       </c>
       <c r="F34">
-        <v>12873268163</v>
+        <v>17340893</v>
       </c>
       <c r="G34">
-        <v>12873268163</v>
+        <v>17340893</v>
       </c>
       <c r="H34">
-        <v>12873268163</v>
+        <v>17340893</v>
       </c>
       <c r="I34">
-        <v>12873268163</v>
+        <v>17340893</v>
       </c>
       <c r="J34">
-        <v>12873268163</v>
+        <v>17340893</v>
       </c>
       <c r="K34">
         <v>0.2616</v>
@@ -4967,7 +4967,7 @@
         <v>0.2616</v>
       </c>
       <c r="W34">
-        <v>6436634082</v>
+        <v>8670447</v>
       </c>
       <c r="X34">
         <v>1400</v>
@@ -4979,10 +4979,10 @@
         <v>116</v>
       </c>
       <c r="AA34">
-        <v>12873268163</v>
+        <v>17340893</v>
       </c>
       <c r="AB34">
-        <v>12873268163</v>
+        <v>17340893</v>
       </c>
       <c r="AC34">
         <v>0.2616</v>
@@ -5038,28 +5038,28 @@
         <v>117</v>
       </c>
       <c r="C35">
-        <v>15500000000</v>
+        <v>20000000</v>
       </c>
       <c r="D35">
-        <v>15500000000</v>
+        <v>20000000</v>
       </c>
       <c r="E35">
-        <v>15500000000</v>
+        <v>20000000</v>
       </c>
       <c r="F35">
-        <v>15500000000</v>
+        <v>20000000</v>
       </c>
       <c r="G35">
-        <v>15500000000</v>
+        <v>20000000</v>
       </c>
       <c r="H35">
-        <v>15500000000</v>
+        <v>20000000</v>
       </c>
       <c r="I35">
-        <v>15500000000</v>
+        <v>20000000</v>
       </c>
       <c r="J35">
-        <v>15500000000</v>
+        <v>20000000</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -5098,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="W35">
-        <v>7750000000</v>
+        <v>10000000</v>
       </c>
       <c r="X35">
         <v>2000</v>
@@ -5110,10 +5110,10 @@
         <v>118</v>
       </c>
       <c r="AA35">
-        <v>15500000000</v>
+        <v>20000000</v>
       </c>
       <c r="AB35">
-        <v>15500000000</v>
+        <v>20000000</v>
       </c>
       <c r="AC35">
         <v>1</v>
